--- a/latamReturns&Ratios/latamCountriesRatios.xlsx
+++ b/latamReturns&Ratios/latamCountriesRatios.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
@@ -38,177 +38,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4B60D"/>
+        <fgColor rgb="00FC8C9D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009D05B2"/>
+        <fgColor rgb="00452633"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0054CB5E"/>
+        <fgColor rgb="008DE2B9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0053CE7F"/>
+        <fgColor rgb="00D721FC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003DBF54"/>
+        <fgColor rgb="00CD504B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0096FAD9"/>
+        <fgColor rgb="00943BFA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E92EFA"/>
+        <fgColor rgb="00D05947"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00780FD7"/>
+        <fgColor rgb="004F9B3A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00576620"/>
+        <fgColor rgb="006481CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001D2D81"/>
+        <fgColor rgb="00D05614"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F5F269"/>
+        <fgColor rgb="00806892"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0013DE1C"/>
+        <fgColor rgb="00E7B6C3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000B40CC"/>
+        <fgColor rgb="00CD7D02"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0085843D"/>
+        <fgColor rgb="0081460E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008843CE"/>
+        <fgColor rgb="00DA2D12"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F9EE35"/>
+        <fgColor rgb="00C09744"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00646E5C"/>
+        <fgColor rgb="00F1F705"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0078543A"/>
+        <fgColor rgb="0075EA01"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CABBDF"/>
+        <fgColor rgb="00C4BEBE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F53DB9"/>
+        <fgColor rgb="00874A3E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00685F08"/>
+        <fgColor rgb="00D5D3C6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008EAF52"/>
+        <fgColor rgb="00FB6DC3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DECAEC"/>
+        <fgColor rgb="00BC6D11"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCC146"/>
+        <fgColor rgb="0016232A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00722EB6"/>
+        <fgColor rgb="00BABAE5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008D9208"/>
+        <fgColor rgb="00B75069"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CAFBAA"/>
+        <fgColor rgb="0060368C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0049E819"/>
+        <fgColor rgb="0001F2F9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0051D6E8"/>
+        <fgColor rgb="002E8337"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0047E42C"/>
+        <fgColor rgb="0086D738"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D26336"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BA9C6A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007D72AC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0065FFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AB395A"/>
+        <fgColor rgb="005AD4D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -230,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -266,10 +246,6 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -635,7 +611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C254"/>
+  <dimension ref="A1:C235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +643,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.3</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="3">
@@ -682,7 +658,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="4">
@@ -697,7 +673,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="5">
@@ -712,7 +688,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.39</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="6">
@@ -727,7 +703,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.41</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="7">
@@ -742,7 +718,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.12</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="8">
@@ -757,7 +733,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="9">
@@ -772,7 +748,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="10">
@@ -787,7 +763,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="11">
@@ -802,7 +778,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.75</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="12">
@@ -817,13 +793,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.54</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>GGAL/TGS</t>
+          <t>GGAL/CRESY</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
@@ -832,13 +808,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>GGAL/BBAR</t>
+          <t>GGAL/TGS</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
@@ -847,13 +823,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.31</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>GGAL/LOMA</t>
+          <t>GGAL/BBAR</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -862,13 +838,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>GGAL/IRS</t>
+          <t>GGAL/LOMA</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -877,13 +853,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>GGAL/PAM</t>
+          <t>GGAL/IRS</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -892,28 +868,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.79</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>SUPV/AGRO</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>SUPV</t>
+          <t>GGAL/PAM</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>GGAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.06</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>SUPV/TGS</t>
+          <t>SUPV/AGRO</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
@@ -922,13 +898,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>SUPV/LOMA</t>
+          <t>SUPV/CRESY</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
@@ -937,13 +913,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.14</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>SUPV/PAM</t>
+          <t>SUPV/TGS</t>
         </is>
       </c>
       <c r="B21" s="5" t="inlineStr">
@@ -952,148 +928,148 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.21</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>PAM/TEO</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
-          <t>PAM</t>
+          <t>SUPV/LOMA</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>SUPV</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-2.02</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>PAM/YPF</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
-        <is>
-          <t>PAM</t>
+          <t>SUPV/IRS</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>SUPV</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-2.04</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>PAM/BMA</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
-        <is>
-          <t>PAM</t>
+          <t>SUPV/CEPU</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>SUPV</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-2.23</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>PAM/GGAL</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
-        <is>
-          <t>PAM</t>
+          <t>SUPV/PAM</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>SUPV</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-2.24</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>VIV/ABEV</t>
-        </is>
-      </c>
-      <c r="B26" s="7" t="inlineStr">
-        <is>
-          <t>VIV</t>
+          <t>PAM/TEO</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>PAM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.13</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>VIV/BBD</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="inlineStr">
-        <is>
-          <t>VIV</t>
+          <t>PAM/YPF</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>PAM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3.44</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>VIV/BSBR</t>
-        </is>
-      </c>
-      <c r="B28" s="7" t="inlineStr">
-        <is>
-          <t>VIV</t>
+          <t>PAM/VIST</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>PAM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.41</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>VIV/GOL</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="inlineStr">
-        <is>
-          <t>VIV</t>
+          <t>PAM/BMA</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>PAM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4.23</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>VIV/GGB</t>
-        </is>
-      </c>
-      <c r="B30" s="7" t="inlineStr">
-        <is>
-          <t>VIV</t>
+          <t>PAM/GGAL</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>PAM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.25</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>VIV/VALE</t>
+          <t>VIV/ABEV</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
@@ -1102,13 +1078,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>VIV/SGML</t>
+          <t>VIV/BBD</t>
         </is>
       </c>
       <c r="B32" s="7" t="inlineStr">
@@ -1117,13 +1093,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.87</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>VIV/ELP</t>
+          <t>VIV/GOL</t>
         </is>
       </c>
       <c r="B33" s="7" t="inlineStr">
@@ -1132,58 +1108,58 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.43</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>TIMB/ABEV</t>
-        </is>
-      </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>TIMB</t>
+          <t>VIV/SGML</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="inlineStr">
+        <is>
+          <t>VIV</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.01</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>TIMB/BBD</t>
-        </is>
-      </c>
-      <c r="B35" s="8" t="inlineStr">
-        <is>
-          <t>TIMB</t>
+          <t>VIV/ELP</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="inlineStr">
+        <is>
+          <t>VIV</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3.28</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>TIMB/BSBR</t>
-        </is>
-      </c>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>TIMB</t>
+          <t>VIV/SBS</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>VIV</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.14</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>TIMB/AZUL</t>
+          <t>TIMB/UGP</t>
         </is>
       </c>
       <c r="B37" s="8" t="inlineStr">
@@ -1192,13 +1168,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>TIMB/GOL</t>
+          <t>TIMB/BBD</t>
         </is>
       </c>
       <c r="B38" s="8" t="inlineStr">
@@ -1207,13 +1183,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.14</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>TIMB/GGB</t>
+          <t>TIMB/GOL</t>
         </is>
       </c>
       <c r="B39" s="8" t="inlineStr">
@@ -1222,7 +1198,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.15</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="40">
@@ -1237,13 +1213,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.76</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>TIMB/ELP</t>
+          <t>TIMB/SBS</t>
         </is>
       </c>
       <c r="B41" s="8" t="inlineStr">
@@ -1252,7 +1228,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.39</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="42">
@@ -1267,7 +1243,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-2.01</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="43">
@@ -1282,13 +1258,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-2.2</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ABEV/GOL</t>
+          <t>ABEV/ERJ</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
@@ -1297,13 +1273,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.89</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ABEV/SGML</t>
+          <t>ABEV/GOL</t>
         </is>
       </c>
       <c r="B45" s="9" t="inlineStr">
@@ -1312,13 +1288,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4.03</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ABEV/EBR</t>
+          <t>ABEV/SID</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
@@ -1327,43 +1303,43 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-2.1</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>BRFS/BBD</t>
-        </is>
-      </c>
-      <c r="B47" s="10" t="inlineStr">
-        <is>
-          <t>BRFS</t>
+          <t>ABEV/SGML</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>ABEV</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.49</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>BRFS/AZUL</t>
-        </is>
-      </c>
-      <c r="B48" s="10" t="inlineStr">
-        <is>
-          <t>BRFS</t>
+          <t>ABEV/EBR</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>ABEV</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.46</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>BRFS/GOL</t>
+          <t>BRFS/BBD</t>
         </is>
       </c>
       <c r="B49" s="10" t="inlineStr">
@@ -1372,13 +1348,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4.02</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>BRFS/SGML</t>
+          <t>BRFS/AZUL</t>
         </is>
       </c>
       <c r="B50" s="10" t="inlineStr">
@@ -1387,13 +1363,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.48</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>BRFS/ELP</t>
+          <t>BRFS/GOL</t>
         </is>
       </c>
       <c r="B51" s="10" t="inlineStr">
@@ -1402,43 +1378,43 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.03</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>PBR/ABEV</t>
-        </is>
-      </c>
-      <c r="B52" s="11" t="inlineStr">
-        <is>
-          <t>PBR</t>
+          <t>BRFS/SGML</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="inlineStr">
+        <is>
+          <t>BRFS</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.03</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>PBR/BBD</t>
-        </is>
-      </c>
-      <c r="B53" s="11" t="inlineStr">
-        <is>
-          <t>PBR</t>
+          <t>BRFS/ELP</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="inlineStr">
+        <is>
+          <t>BRFS</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3.01</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>PBR/AZUL</t>
+          <t>PBR/ABEV</t>
         </is>
       </c>
       <c r="B54" s="11" t="inlineStr">
@@ -1447,13 +1423,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>PBR/GOL</t>
+          <t>PBR/BBD</t>
         </is>
       </c>
       <c r="B55" s="11" t="inlineStr">
@@ -1462,13 +1438,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4.19</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>PBR/GGB</t>
+          <t>PBR/AZUL</t>
         </is>
       </c>
       <c r="B56" s="11" t="inlineStr">
@@ -1477,13 +1453,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>PBR/SUZ</t>
+          <t>PBR/GOL</t>
         </is>
       </c>
       <c r="B57" s="11" t="inlineStr">
@@ -1492,13 +1468,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.5</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>PBR/BAK</t>
+          <t>PBR/GGB</t>
         </is>
       </c>
       <c r="B58" s="11" t="inlineStr">
@@ -1507,13 +1483,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>PBR/SGML</t>
+          <t>PBR/SUZ</t>
         </is>
       </c>
       <c r="B59" s="11" t="inlineStr">
@@ -1522,13 +1498,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3.87</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>PBR/CIG</t>
+          <t>PBR/SGML</t>
         </is>
       </c>
       <c r="B60" s="11" t="inlineStr">
@@ -1537,13 +1513,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.11</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>PBR/ELP</t>
+          <t>PBR/CIG</t>
         </is>
       </c>
       <c r="B61" s="11" t="inlineStr">
@@ -1552,28 +1528,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>UGP/TIMB</t>
-        </is>
-      </c>
-      <c r="B62" s="12" t="inlineStr">
-        <is>
-          <t>UGP</t>
+          <t>PBR/ELP</t>
+        </is>
+      </c>
+      <c r="B62" s="11" t="inlineStr">
+        <is>
+          <t>PBR</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.07</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>UGP/ABEV</t>
+          <t>UGP/VIV</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
@@ -1582,13 +1558,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>UGP/CSAN</t>
+          <t>UGP/TIMB</t>
         </is>
       </c>
       <c r="B64" s="12" t="inlineStr">
@@ -1597,13 +1573,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.13</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>UGP/BBD</t>
+          <t>UGP/ABEV</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
@@ -1612,13 +1588,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3.23</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>UGP/BSBR</t>
+          <t>UGP/NTCO</t>
         </is>
       </c>
       <c r="B66" s="12" t="inlineStr">
@@ -1627,13 +1603,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2.51</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>UGP/AZUL</t>
+          <t>UGP/CSAN</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
@@ -1642,13 +1618,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2.85</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>UGP/GOL</t>
+          <t>UGP/BBD</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
@@ -1657,13 +1633,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4.26</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>UGP/GGB</t>
+          <t>UGP/BSBR</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
@@ -1672,13 +1648,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>UGP/SUZ</t>
+          <t>UGP/AZUL</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
@@ -1687,13 +1663,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2.33</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>UGP/BAK</t>
+          <t>UGP/GOL</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
@@ -1702,13 +1678,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2.25</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>UGP/VALE</t>
+          <t>UGP/GGB</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
@@ -1717,13 +1693,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>UGP/SGML</t>
+          <t>UGP/SUZ</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
@@ -1732,13 +1708,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3.83</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>UGP/CIG</t>
+          <t>UGP/VALE</t>
         </is>
       </c>
       <c r="B74" s="12" t="inlineStr">
@@ -1747,13 +1723,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>UGP/ELP</t>
+          <t>UGP/SGML</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
@@ -1762,58 +1738,58 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2.56</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>BBD/VIV</t>
-        </is>
-      </c>
-      <c r="B76" s="13" t="inlineStr">
-        <is>
-          <t>BBD</t>
+          <t>UGP/EBR</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="inlineStr">
+        <is>
+          <t>UGP</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-2.69</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>BBD/TIMB</t>
-        </is>
-      </c>
-      <c r="B77" s="13" t="inlineStr">
-        <is>
-          <t>BBD</t>
+          <t>UGP/CIG</t>
+        </is>
+      </c>
+      <c r="B77" s="12" t="inlineStr">
+        <is>
+          <t>UGP</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-2.61</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>BBD/NTCO</t>
-        </is>
-      </c>
-      <c r="B78" s="13" t="inlineStr">
-        <is>
-          <t>BBD</t>
+          <t>UGP/ELP</t>
+        </is>
+      </c>
+      <c r="B78" s="12" t="inlineStr">
+        <is>
+          <t>UGP</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-2.01</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>BBD/CSAN</t>
+          <t>BBD/VIV</t>
         </is>
       </c>
       <c r="B79" s="13" t="inlineStr">
@@ -1822,13 +1798,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-2.5</v>
+        <v>-2.47</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>BBD/PBR</t>
+          <t>BBD/TIMB</t>
         </is>
       </c>
       <c r="B80" s="13" t="inlineStr">
@@ -1837,13 +1813,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-2.32</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>BBD/UGP</t>
+          <t>BBD/CSAN</t>
         </is>
       </c>
       <c r="B81" s="13" t="inlineStr">
@@ -1852,13 +1828,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-2.32</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>BBD/BSBR</t>
+          <t>BBD/PBR</t>
         </is>
       </c>
       <c r="B82" s="13" t="inlineStr">
@@ -1867,13 +1843,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-2.35</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>BBD/ITUB</t>
+          <t>BBD/UGP</t>
         </is>
       </c>
       <c r="B83" s="13" t="inlineStr">
@@ -1882,13 +1858,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-3.45</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>BBD/NU</t>
+          <t>BBD/BSBR</t>
         </is>
       </c>
       <c r="B84" s="13" t="inlineStr">
@@ -1897,13 +1873,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-2.35</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>BBD/PAGS</t>
+          <t>BBD/ITUB</t>
         </is>
       </c>
       <c r="B85" s="13" t="inlineStr">
@@ -1912,13 +1888,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-2.64</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>BBD/STNE</t>
+          <t>BBD/NU</t>
         </is>
       </c>
       <c r="B86" s="13" t="inlineStr">
@@ -1927,13 +1903,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-2.34</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>BBD/ERJ</t>
+          <t>BBD/PAGS</t>
         </is>
       </c>
       <c r="B87" s="13" t="inlineStr">
@@ -1942,13 +1918,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-2.16</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>BBD/GOL</t>
+          <t>BBD/STNE</t>
         </is>
       </c>
       <c r="B88" s="13" t="inlineStr">
@@ -1957,13 +1933,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3.58</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>BBD/SGML</t>
+          <t>BBD/ERJ</t>
         </is>
       </c>
       <c r="B89" s="13" t="inlineStr">
@@ -1972,13 +1948,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3.2</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>BBD/EBR</t>
+          <t>BBD/GOL</t>
         </is>
       </c>
       <c r="B90" s="13" t="inlineStr">
@@ -1987,13 +1963,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-3.74</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>BBD/SBS</t>
+          <t>BBD/SID</t>
         </is>
       </c>
       <c r="B91" s="13" t="inlineStr">
@@ -2002,58 +1978,58 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-2.58</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>BSBR/VIV</t>
-        </is>
-      </c>
-      <c r="B92" s="14" t="inlineStr">
-        <is>
-          <t>BSBR</t>
+          <t>BBD/SGML</t>
+        </is>
+      </c>
+      <c r="B92" s="13" t="inlineStr">
+        <is>
+          <t>BBD</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-2.08</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>BSBR/BBD</t>
-        </is>
-      </c>
-      <c r="B93" s="14" t="inlineStr">
-        <is>
-          <t>BSBR</t>
+          <t>BBD/EBR</t>
+        </is>
+      </c>
+      <c r="B93" s="13" t="inlineStr">
+        <is>
+          <t>BBD</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2.52</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>BSBR/ITUB</t>
-        </is>
-      </c>
-      <c r="B94" s="14" t="inlineStr">
-        <is>
-          <t>BSBR</t>
+          <t>BBD/SBS</t>
+        </is>
+      </c>
+      <c r="B94" s="13" t="inlineStr">
+        <is>
+          <t>BBD</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-2.53</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>BSBR/PAGS</t>
+          <t>BSBR/BBD</t>
         </is>
       </c>
       <c r="B95" s="14" t="inlineStr">
@@ -2062,13 +2038,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-2.15</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>BSBR/GOL</t>
+          <t>BSBR/ITUB</t>
         </is>
       </c>
       <c r="B96" s="14" t="inlineStr">
@@ -2077,13 +2053,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>BSBR/SGML</t>
+          <t>BSBR/GOL</t>
         </is>
       </c>
       <c r="B97" s="14" t="inlineStr">
@@ -2092,13 +2068,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3.74</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>BSBR/EBR</t>
+          <t>BSBR/SGML</t>
         </is>
       </c>
       <c r="B98" s="14" t="inlineStr">
@@ -2107,13 +2083,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-2.73</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>BSBR/SBS</t>
+          <t>BSBR/EBR</t>
         </is>
       </c>
       <c r="B99" s="14" t="inlineStr">
@@ -2122,28 +2098,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-2.1</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>ITUB/ABEV</t>
-        </is>
-      </c>
-      <c r="B100" s="15" t="inlineStr">
-        <is>
-          <t>ITUB</t>
+          <t>BSBR/SBS</t>
+        </is>
+      </c>
+      <c r="B100" s="14" t="inlineStr">
+        <is>
+          <t>BSBR</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2.36</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>ITUB/BBD</t>
+          <t>ITUB/ABEV</t>
         </is>
       </c>
       <c r="B101" s="15" t="inlineStr">
@@ -2152,13 +2128,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4.16</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>ITUB/BSBR</t>
+          <t>ITUB/BBD</t>
         </is>
       </c>
       <c r="B102" s="15" t="inlineStr">
@@ -2167,13 +2143,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2.91</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>ITUB/AZUL</t>
+          <t>ITUB/BSBR</t>
         </is>
       </c>
       <c r="B103" s="15" t="inlineStr">
@@ -2182,13 +2158,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2.12</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>ITUB/GOL</t>
+          <t>ITUB/AZUL</t>
         </is>
       </c>
       <c r="B104" s="15" t="inlineStr">
@@ -2197,13 +2173,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4.24</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>ITUB/GGB</t>
+          <t>ITUB/GOL</t>
         </is>
       </c>
       <c r="B105" s="15" t="inlineStr">
@@ -2212,13 +2188,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2.44</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>ITUB/BAK</t>
+          <t>ITUB/GGB</t>
         </is>
       </c>
       <c r="B106" s="15" t="inlineStr">
@@ -2227,7 +2203,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="107">
@@ -2242,7 +2218,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2.21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2257,7 +2233,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="109">
@@ -2272,13 +2248,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>NU/ABEV</t>
+          <t>NU/TIMB</t>
         </is>
       </c>
       <c r="B110" s="16" t="inlineStr">
@@ -2287,13 +2263,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2.58</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>NU/CSAN</t>
+          <t>NU/ABEV</t>
         </is>
       </c>
       <c r="B111" s="16" t="inlineStr">
@@ -2302,13 +2278,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>NU/BBD</t>
+          <t>NU/NTCO</t>
         </is>
       </c>
       <c r="B112" s="16" t="inlineStr">
@@ -2317,13 +2293,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3.67</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>NU/BSBR</t>
+          <t>NU/CSAN</t>
         </is>
       </c>
       <c r="B113" s="16" t="inlineStr">
@@ -2332,13 +2308,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2.63</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NU/AZUL</t>
+          <t>NU/BBD</t>
         </is>
       </c>
       <c r="B114" s="16" t="inlineStr">
@@ -2347,13 +2323,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3.29</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>NU/GOL</t>
+          <t>NU/BSBR</t>
         </is>
       </c>
       <c r="B115" s="16" t="inlineStr">
@@ -2362,13 +2338,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>4.72</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>NU/GGB</t>
+          <t>NU/AZUL</t>
         </is>
       </c>
       <c r="B116" s="16" t="inlineStr">
@@ -2377,13 +2353,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>NU/SUZ</t>
+          <t>NU/GOL</t>
         </is>
       </c>
       <c r="B117" s="16" t="inlineStr">
@@ -2392,13 +2368,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2.6</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>NU/BAK</t>
+          <t>NU/GGB</t>
         </is>
       </c>
       <c r="B118" s="16" t="inlineStr">
@@ -2407,13 +2383,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>NU/VALE</t>
+          <t>NU/SUZ</t>
         </is>
       </c>
       <c r="B119" s="16" t="inlineStr">
@@ -2422,13 +2398,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>NU/SGML</t>
+          <t>NU/VALE</t>
         </is>
       </c>
       <c r="B120" s="16" t="inlineStr">
@@ -2437,13 +2413,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4.23</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>NU/CIG</t>
+          <t>NU/SGML</t>
         </is>
       </c>
       <c r="B121" s="16" t="inlineStr">
@@ -2452,13 +2428,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2.56</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>NU/ELP</t>
+          <t>NU/CIG</t>
         </is>
       </c>
       <c r="B122" s="16" t="inlineStr">
@@ -2467,28 +2443,28 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2.88</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>PAGS/ABEV</t>
-        </is>
-      </c>
-      <c r="B123" s="17" t="inlineStr">
-        <is>
-          <t>PAGS</t>
+          <t>NU/ELP</t>
+        </is>
+      </c>
+      <c r="B123" s="16" t="inlineStr">
+        <is>
+          <t>NU</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2.63</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>PAGS/BBD</t>
+          <t>PAGS/ABEV</t>
         </is>
       </c>
       <c r="B124" s="17" t="inlineStr">
@@ -2497,13 +2473,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3.47</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>PAGS/BSBR</t>
+          <t>PAGS/BBD</t>
         </is>
       </c>
       <c r="B125" s="17" t="inlineStr">
@@ -2512,13 +2488,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2.66</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>PAGS/AZUL</t>
+          <t>PAGS/BSBR</t>
         </is>
       </c>
       <c r="B126" s="17" t="inlineStr">
@@ -2527,13 +2503,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>PAGS/GOL</t>
+          <t>PAGS/AZUL</t>
         </is>
       </c>
       <c r="B127" s="17" t="inlineStr">
@@ -2542,13 +2518,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4.14</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>PAGS/GGB</t>
+          <t>PAGS/GOL</t>
         </is>
       </c>
       <c r="B128" s="17" t="inlineStr">
@@ -2557,13 +2533,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2.66</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>PAGS/BAK</t>
+          <t>PAGS/GGB</t>
         </is>
       </c>
       <c r="B129" s="17" t="inlineStr">
@@ -2572,13 +2548,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2.58</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>PAGS/VALE</t>
+          <t>PAGS/SGML</t>
         </is>
       </c>
       <c r="B130" s="17" t="inlineStr">
@@ -2587,783 +2563,783 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2.42</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>PAGS/SGML</t>
-        </is>
-      </c>
-      <c r="B131" s="17" t="inlineStr">
-        <is>
-          <t>PAGS</t>
+          <t>ERJ/ABEV</t>
+        </is>
+      </c>
+      <c r="B131" s="18" t="inlineStr">
+        <is>
+          <t>ERJ</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>4.18</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>PAGS/CIG</t>
-        </is>
-      </c>
-      <c r="B132" s="17" t="inlineStr">
-        <is>
-          <t>PAGS</t>
+          <t>ERJ/BBD</t>
+        </is>
+      </c>
+      <c r="B132" s="18" t="inlineStr">
+        <is>
+          <t>ERJ</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>STNE/ABEV</t>
+          <t>ERJ/GOL</t>
         </is>
       </c>
       <c r="B133" s="18" t="inlineStr">
         <is>
-          <t>STNE</t>
+          <t>ERJ</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2.04</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>STNE/BBD</t>
+          <t>ERJ/GGB</t>
         </is>
       </c>
       <c r="B134" s="18" t="inlineStr">
         <is>
-          <t>STNE</t>
+          <t>ERJ</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2.94</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>STNE/BSBR</t>
+          <t>ERJ/VALE</t>
         </is>
       </c>
       <c r="B135" s="18" t="inlineStr">
         <is>
-          <t>STNE</t>
+          <t>ERJ</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>STNE/AZUL</t>
+          <t>ERJ/SGML</t>
         </is>
       </c>
       <c r="B136" s="18" t="inlineStr">
         <is>
-          <t>STNE</t>
+          <t>ERJ</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2.32</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>STNE/GOL</t>
-        </is>
-      </c>
-      <c r="B137" s="18" t="inlineStr">
-        <is>
-          <t>STNE</t>
+          <t>GOL/VIV</t>
+        </is>
+      </c>
+      <c r="B137" s="19" t="inlineStr">
+        <is>
+          <t>GOL</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3.93</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>STNE/GGB</t>
-        </is>
-      </c>
-      <c r="B138" s="18" t="inlineStr">
-        <is>
-          <t>STNE</t>
+          <t>GOL/TIMB</t>
+        </is>
+      </c>
+      <c r="B138" s="19" t="inlineStr">
+        <is>
+          <t>GOL</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2.11</v>
+        <v>-2.56</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>STNE/BAK</t>
-        </is>
-      </c>
-      <c r="B139" s="18" t="inlineStr">
-        <is>
-          <t>STNE</t>
+          <t>GOL/ABEV</t>
+        </is>
+      </c>
+      <c r="B139" s="19" t="inlineStr">
+        <is>
+          <t>GOL</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2.05</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>STNE/SGML</t>
-        </is>
-      </c>
-      <c r="B140" s="18" t="inlineStr">
-        <is>
-          <t>STNE</t>
+          <t>GOL/BRFS</t>
+        </is>
+      </c>
+      <c r="B140" s="19" t="inlineStr">
+        <is>
+          <t>GOL</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3.69</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>ERJ/ABEV</t>
+          <t>GOL/NTCO</t>
         </is>
       </c>
       <c r="B141" s="19" t="inlineStr">
         <is>
-          <t>ERJ</t>
+          <t>GOL</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2.26</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>ERJ/BBD</t>
+          <t>GOL/ASAI</t>
         </is>
       </c>
       <c r="B142" s="19" t="inlineStr">
         <is>
-          <t>ERJ</t>
+          <t>GOL</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2.6</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>ERJ/GOL</t>
+          <t>GOL/CSAN</t>
         </is>
       </c>
       <c r="B143" s="19" t="inlineStr">
         <is>
-          <t>ERJ</t>
+          <t>GOL</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>4.09</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>ERJ/GGB</t>
+          <t>GOL/PBR</t>
         </is>
       </c>
       <c r="B144" s="19" t="inlineStr">
         <is>
-          <t>ERJ</t>
+          <t>GOL</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2.28</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>ERJ/VALE</t>
+          <t>GOL/UGP</t>
         </is>
       </c>
       <c r="B145" s="19" t="inlineStr">
         <is>
-          <t>ERJ</t>
+          <t>GOL</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2.46</v>
+        <v>-2.56</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>ERJ/SGML</t>
+          <t>GOL/BBD</t>
         </is>
       </c>
       <c r="B146" s="19" t="inlineStr">
         <is>
-          <t>ERJ</t>
+          <t>GOL</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>4.02</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>GOL/VIV</t>
-        </is>
-      </c>
-      <c r="B147" s="20" t="inlineStr">
+          <t>GOL/BSBR</t>
+        </is>
+      </c>
+      <c r="B147" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-2.61</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>GOL/TIMB</t>
-        </is>
-      </c>
-      <c r="B148" s="20" t="inlineStr">
+          <t>GOL/ITUB</t>
+        </is>
+      </c>
+      <c r="B148" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>-2.59</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>GOL/ABEV</t>
-        </is>
-      </c>
-      <c r="B149" s="20" t="inlineStr">
+          <t>GOL/NU</t>
+        </is>
+      </c>
+      <c r="B149" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-2.72</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>GOL/BRFS</t>
-        </is>
-      </c>
-      <c r="B150" s="20" t="inlineStr">
+          <t>GOL/PAGS</t>
+        </is>
+      </c>
+      <c r="B150" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-2.37</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>GOL/NTCO</t>
-        </is>
-      </c>
-      <c r="B151" s="20" t="inlineStr">
+          <t>GOL/STNE</t>
+        </is>
+      </c>
+      <c r="B151" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-3.05</v>
+        <v>-2.56</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>GOL/ASAI</t>
-        </is>
-      </c>
-      <c r="B152" s="20" t="inlineStr">
+          <t>GOL/XP</t>
+        </is>
+      </c>
+      <c r="B152" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>GOL/CSAN</t>
-        </is>
-      </c>
-      <c r="B153" s="20" t="inlineStr">
+          <t>GOL/AZUL</t>
+        </is>
+      </c>
+      <c r="B153" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-2.95</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>GOL/PBR</t>
-        </is>
-      </c>
-      <c r="B154" s="20" t="inlineStr">
+          <t>GOL/ERJ</t>
+        </is>
+      </c>
+      <c r="B154" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-2.64</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>GOL/UGP</t>
-        </is>
-      </c>
-      <c r="B155" s="20" t="inlineStr">
+          <t>GOL/SID</t>
+        </is>
+      </c>
+      <c r="B155" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-2.56</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>GOL/BBD</t>
-        </is>
-      </c>
-      <c r="B156" s="20" t="inlineStr">
+          <t>GOL/GGB</t>
+        </is>
+      </c>
+      <c r="B156" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-2.86</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>GOL/BSBR</t>
-        </is>
-      </c>
-      <c r="B157" s="20" t="inlineStr">
+          <t>GOL/SUZ</t>
+        </is>
+      </c>
+      <c r="B157" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-2.85</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>GOL/ITUB</t>
-        </is>
-      </c>
-      <c r="B158" s="20" t="inlineStr">
+          <t>GOL/BAK</t>
+        </is>
+      </c>
+      <c r="B158" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-2.82</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>GOL/NU</t>
-        </is>
-      </c>
-      <c r="B159" s="20" t="inlineStr">
+          <t>GOL/VALE</t>
+        </is>
+      </c>
+      <c r="B159" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-2.86</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>GOL/PAGS</t>
-        </is>
-      </c>
-      <c r="B160" s="20" t="inlineStr">
+          <t>GOL/EBR</t>
+        </is>
+      </c>
+      <c r="B160" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>-2.57</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>GOL/STNE</t>
-        </is>
-      </c>
-      <c r="B161" s="20" t="inlineStr">
+          <t>GOL/CIG</t>
+        </is>
+      </c>
+      <c r="B161" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>GOL/XP</t>
-        </is>
-      </c>
-      <c r="B162" s="20" t="inlineStr">
+          <t>GOL/ELP</t>
+        </is>
+      </c>
+      <c r="B162" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>-2.41</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>GOL/AZUL</t>
-        </is>
-      </c>
-      <c r="B163" s="20" t="inlineStr">
+          <t>GOL/SBS</t>
+        </is>
+      </c>
+      <c r="B163" s="19" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>-3.51</v>
+        <v>-2.56</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>GOL/ERJ</t>
+          <t>SID/ABEV</t>
         </is>
       </c>
       <c r="B164" s="20" t="inlineStr">
         <is>
-          <t>GOL</t>
+          <t>SID</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>-2.48</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>GOL/SID</t>
+          <t>SID/BBD</t>
         </is>
       </c>
       <c r="B165" s="20" t="inlineStr">
         <is>
-          <t>GOL</t>
+          <t>SID</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-2.34</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>GOL/GGB</t>
+          <t>SID/BSBR</t>
         </is>
       </c>
       <c r="B166" s="20" t="inlineStr">
         <is>
-          <t>GOL</t>
+          <t>SID</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>-2.49</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>GOL/SUZ</t>
+          <t>SID/GOL</t>
         </is>
       </c>
       <c r="B167" s="20" t="inlineStr">
         <is>
-          <t>GOL</t>
+          <t>SID</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>-2.37</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>GOL/BAK</t>
+          <t>SID/GGB</t>
         </is>
       </c>
       <c r="B168" s="20" t="inlineStr">
         <is>
-          <t>GOL</t>
+          <t>SID</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>-2.86</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>GOL/VALE</t>
+          <t>SID/VALE</t>
         </is>
       </c>
       <c r="B169" s="20" t="inlineStr">
         <is>
-          <t>GOL</t>
+          <t>SID</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>-2.2</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>GOL/EBR</t>
+          <t>SID/SGML</t>
         </is>
       </c>
       <c r="B170" s="20" t="inlineStr">
         <is>
-          <t>GOL</t>
+          <t>SID</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-2.96</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>GOL/CIG</t>
-        </is>
-      </c>
-      <c r="B171" s="20" t="inlineStr">
-        <is>
-          <t>GOL</t>
+          <t>SGML/VIV</t>
+        </is>
+      </c>
+      <c r="B171" s="21" t="inlineStr">
+        <is>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>-2.64</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>GOL/ELP</t>
-        </is>
-      </c>
-      <c r="B172" s="20" t="inlineStr">
-        <is>
-          <t>GOL</t>
+          <t>SGML/TIMB</t>
+        </is>
+      </c>
+      <c r="B172" s="21" t="inlineStr">
+        <is>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-2.53</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>GOL/SBS</t>
-        </is>
-      </c>
-      <c r="B173" s="20" t="inlineStr">
-        <is>
-          <t>GOL</t>
+          <t>SGML/ABEV</t>
+        </is>
+      </c>
+      <c r="B173" s="21" t="inlineStr">
+        <is>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-2.54</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>SID/ABEV</t>
+          <t>SGML/NTCO</t>
         </is>
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>SID</t>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2.11</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>SID/BBD</t>
+          <t>SGML/ASAI</t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>SID</t>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2.46</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>SID/BSBR</t>
+          <t>SGML/CSAN</t>
         </is>
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>SID</t>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2.01</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>SID/GOL</t>
+          <t>SGML/PBR</t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>SID</t>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>4.17</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>SID/GGB</t>
+          <t>SGML/BBD</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>SID</t>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2.32</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>SID/VALE</t>
+          <t>SGML/BSBR</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>SID</t>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2.83</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>SID/SGML</t>
+          <t>SGML/ITUB</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>SID</t>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>4.09</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>GGB/ITUB</t>
-        </is>
-      </c>
-      <c r="B181" s="22" t="inlineStr">
-        <is>
-          <t>GGB</t>
+          <t>SGML/PAGS</t>
+        </is>
+      </c>
+      <c r="B181" s="21" t="inlineStr">
+        <is>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>-2.02</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>GGB/PAGS</t>
-        </is>
-      </c>
-      <c r="B182" s="22" t="inlineStr">
-        <is>
-          <t>GGB</t>
+          <t>SGML/STNE</t>
+        </is>
+      </c>
+      <c r="B182" s="21" t="inlineStr">
+        <is>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -3373,1081 +3349,796 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>GGB/GOL</t>
-        </is>
-      </c>
-      <c r="B183" s="22" t="inlineStr">
-        <is>
-          <t>GGB</t>
+          <t>SGML/ERJ</t>
+        </is>
+      </c>
+      <c r="B183" s="21" t="inlineStr">
+        <is>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3.6</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>GGB/SGML</t>
-        </is>
-      </c>
-      <c r="B184" s="22" t="inlineStr">
-        <is>
-          <t>GGB</t>
+          <t>SGML/SID</t>
+        </is>
+      </c>
+      <c r="B184" s="21" t="inlineStr">
+        <is>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3.88</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>GGB/EBR</t>
-        </is>
-      </c>
-      <c r="B185" s="22" t="inlineStr">
-        <is>
-          <t>GGB</t>
+          <t>SGML/GGB</t>
+        </is>
+      </c>
+      <c r="B185" s="21" t="inlineStr">
+        <is>
+          <t>SGML</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>-2.06</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>SGML/VIV</t>
-        </is>
-      </c>
-      <c r="B186" s="23" t="inlineStr">
+          <t>SGML/SUZ</t>
+        </is>
+      </c>
+      <c r="B186" s="21" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>-2.39</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>SGML/TIMB</t>
-        </is>
-      </c>
-      <c r="B187" s="23" t="inlineStr">
+          <t>SGML/BAK</t>
+        </is>
+      </c>
+      <c r="B187" s="21" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>-2.32</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>SGML/ABEV</t>
-        </is>
-      </c>
-      <c r="B188" s="23" t="inlineStr">
+          <t>SGML/VALE</t>
+        </is>
+      </c>
+      <c r="B188" s="21" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>-3.05</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>SGML/NTCO</t>
-        </is>
-      </c>
-      <c r="B189" s="23" t="inlineStr">
+          <t>SGML/EBR</t>
+        </is>
+      </c>
+      <c r="B189" s="21" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>-2.32</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>SGML/ASAI</t>
-        </is>
-      </c>
-      <c r="B190" s="23" t="inlineStr">
+          <t>SGML/CIG</t>
+        </is>
+      </c>
+      <c r="B190" s="21" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>-2.65</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>SGML/CSAN</t>
-        </is>
-      </c>
-      <c r="B191" s="23" t="inlineStr">
+          <t>SGML/ELP</t>
+        </is>
+      </c>
+      <c r="B191" s="21" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>-2.45</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>SGML/PBR</t>
-        </is>
-      </c>
-      <c r="B192" s="23" t="inlineStr">
+          <t>SGML/SBS</t>
+        </is>
+      </c>
+      <c r="B192" s="21" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>-2.18</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>SGML/UGP</t>
-        </is>
-      </c>
-      <c r="B193" s="23" t="inlineStr">
-        <is>
-          <t>SGML</t>
+          <t>EBR/ABEV</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>EBR</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>-2.01</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>SGML/BBD</t>
-        </is>
-      </c>
-      <c r="B194" s="23" t="inlineStr">
-        <is>
-          <t>SGML</t>
+          <t>EBR/BBD</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>EBR</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>-2.34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>SGML/BSBR</t>
-        </is>
-      </c>
-      <c r="B195" s="23" t="inlineStr">
-        <is>
-          <t>SGML</t>
+          <t>EBR/BSBR</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>EBR</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>-2.65</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>SGML/ITUB</t>
-        </is>
-      </c>
-      <c r="B196" s="23" t="inlineStr">
-        <is>
-          <t>SGML</t>
+          <t>EBR/GOL</t>
+        </is>
+      </c>
+      <c r="B196" s="22" t="inlineStr">
+        <is>
+          <t>EBR</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>-2.49</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>SGML/PAGS</t>
-        </is>
-      </c>
-      <c r="B197" s="23" t="inlineStr">
-        <is>
-          <t>SGML</t>
+          <t>EBR/GGB</t>
+        </is>
+      </c>
+      <c r="B197" s="22" t="inlineStr">
+        <is>
+          <t>EBR</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>-2.8</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>SGML/STNE</t>
-        </is>
-      </c>
-      <c r="B198" s="23" t="inlineStr">
-        <is>
-          <t>SGML</t>
+          <t>EBR/SGML</t>
+        </is>
+      </c>
+      <c r="B198" s="22" t="inlineStr">
+        <is>
+          <t>EBR</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>-2.27</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>SGML/ERJ</t>
+          <t>ELP/PBR</t>
         </is>
       </c>
       <c r="B199" s="23" t="inlineStr">
         <is>
-          <t>SGML</t>
+          <t>ELP</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>-2.61</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>SGML/SID</t>
+          <t>ELP/UGP</t>
         </is>
       </c>
       <c r="B200" s="23" t="inlineStr">
         <is>
-          <t>SGML</t>
+          <t>ELP</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>-2.53</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>SGML/GGB</t>
+          <t>ELP/ITUB</t>
         </is>
       </c>
       <c r="B201" s="23" t="inlineStr">
         <is>
-          <t>SGML</t>
+          <t>ELP</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>-3.04</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>SGML/SUZ</t>
+          <t>ELP/NU</t>
         </is>
       </c>
       <c r="B202" s="23" t="inlineStr">
         <is>
-          <t>SGML</t>
+          <t>ELP</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>-2.2</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>SGML/BAK</t>
+          <t>ELP/GOL</t>
         </is>
       </c>
       <c r="B203" s="23" t="inlineStr">
         <is>
-          <t>SGML</t>
+          <t>ELP</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>-2.82</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>SGML/VALE</t>
+          <t>ELP/SGML</t>
         </is>
       </c>
       <c r="B204" s="23" t="inlineStr">
         <is>
-          <t>SGML</t>
+          <t>ELP</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>-2.53</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>SGML/EBR</t>
+          <t>ELP/SBS</t>
         </is>
       </c>
       <c r="B205" s="23" t="inlineStr">
         <is>
-          <t>SGML</t>
+          <t>ELP</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>-2.61</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>SGML/CIG</t>
-        </is>
-      </c>
-      <c r="B206" s="23" t="inlineStr">
-        <is>
-          <t>SGML</t>
+          <t>SBS/VIV</t>
+        </is>
+      </c>
+      <c r="B206" s="24" t="inlineStr">
+        <is>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>-2.72</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>SGML/ELP</t>
-        </is>
-      </c>
-      <c r="B207" s="23" t="inlineStr">
-        <is>
-          <t>SGML</t>
+          <t>SBS/TIMB</t>
+        </is>
+      </c>
+      <c r="B207" s="24" t="inlineStr">
+        <is>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>-2.19</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>SGML/SBS</t>
-        </is>
-      </c>
-      <c r="B208" s="23" t="inlineStr">
-        <is>
-          <t>SGML</t>
+          <t>SBS/ABEV</t>
+        </is>
+      </c>
+      <c r="B208" s="24" t="inlineStr">
+        <is>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>-2.29</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>EBR/ABEV</t>
+          <t>SBS/CSAN</t>
         </is>
       </c>
       <c r="B209" s="24" t="inlineStr">
         <is>
-          <t>EBR</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>EBR/BBD</t>
+          <t>SBS/BBD</t>
         </is>
       </c>
       <c r="B210" s="24" t="inlineStr">
         <is>
-          <t>EBR</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>4.36</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>EBR/BSBR</t>
+          <t>SBS/BSBR</t>
         </is>
       </c>
       <c r="B211" s="24" t="inlineStr">
         <is>
-          <t>EBR</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3.06</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>EBR/GOL</t>
+          <t>SBS/AZUL</t>
         </is>
       </c>
       <c r="B212" s="24" t="inlineStr">
         <is>
-          <t>EBR</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>4.27</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>EBR/GGB</t>
+          <t>SBS/GOL</t>
         </is>
       </c>
       <c r="B213" s="24" t="inlineStr">
         <is>
-          <t>EBR</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2.45</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>EBR/BAK</t>
+          <t>SBS/GGB</t>
         </is>
       </c>
       <c r="B214" s="24" t="inlineStr">
         <is>
-          <t>EBR</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>2.08</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>EBR/VALE</t>
+          <t>SBS/SUZ</t>
         </is>
       </c>
       <c r="B215" s="24" t="inlineStr">
         <is>
-          <t>EBR</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2.02</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>EBR/SGML</t>
+          <t>SBS/VALE</t>
         </is>
       </c>
       <c r="B216" s="24" t="inlineStr">
         <is>
-          <t>EBR</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>4.01</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>ELP/VIV</t>
-        </is>
-      </c>
-      <c r="B217" s="25" t="inlineStr">
-        <is>
-          <t>ELP</t>
+          <t>SBS/SGML</t>
+        </is>
+      </c>
+      <c r="B217" s="24" t="inlineStr">
+        <is>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>-2.19</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>ELP/TIMB</t>
-        </is>
-      </c>
-      <c r="B218" s="25" t="inlineStr">
-        <is>
-          <t>ELP</t>
+          <t>SBS/EBR</t>
+        </is>
+      </c>
+      <c r="B218" s="24" t="inlineStr">
+        <is>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>-2.25</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>ELP/PBR</t>
-        </is>
-      </c>
-      <c r="B219" s="25" t="inlineStr">
-        <is>
-          <t>ELP</t>
+          <t>SBS/CIG</t>
+        </is>
+      </c>
+      <c r="B219" s="24" t="inlineStr">
+        <is>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>-2.2</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>ELP/UGP</t>
-        </is>
-      </c>
-      <c r="B220" s="25" t="inlineStr">
-        <is>
-          <t>ELP</t>
+          <t>SBS/ELP</t>
+        </is>
+      </c>
+      <c r="B220" s="24" t="inlineStr">
+        <is>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>-2.17</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>ELP/ITUB</t>
+          <t>BCH/SQM</t>
         </is>
       </c>
       <c r="B221" s="25" t="inlineStr">
         <is>
-          <t>ELP</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>-2.1</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>ELP/NU</t>
-        </is>
-      </c>
-      <c r="B222" s="25" t="inlineStr">
-        <is>
-          <t>ELP</t>
+          <t>BSAC/CCU</t>
+        </is>
+      </c>
+      <c r="B222" s="26" t="inlineStr">
+        <is>
+          <t>BSAC</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>-2.05</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>ELP/GOL</t>
-        </is>
-      </c>
-      <c r="B223" s="25" t="inlineStr">
-        <is>
-          <t>ELP</t>
+          <t>BSAC/SQM</t>
+        </is>
+      </c>
+      <c r="B223" s="26" t="inlineStr">
+        <is>
+          <t>BSAC</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>4.06</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>ELP/SGML</t>
-        </is>
-      </c>
-      <c r="B224" s="25" t="inlineStr">
-        <is>
-          <t>ELP</t>
+          <t>EXTO/EC</t>
+        </is>
+      </c>
+      <c r="B224" s="27" t="inlineStr">
+        <is>
+          <t>EXTO</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3.54</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>ELP/SBS</t>
-        </is>
-      </c>
-      <c r="B225" s="25" t="inlineStr">
-        <is>
-          <t>ELP</t>
+          <t>EXTO/CIB</t>
+        </is>
+      </c>
+      <c r="B225" s="27" t="inlineStr">
+        <is>
+          <t>EXTO</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>-2.4</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>SBS/ABEV</t>
-        </is>
-      </c>
-      <c r="B226" s="26" t="inlineStr">
-        <is>
-          <t>SBS</t>
+          <t>EC/EXTO</t>
+        </is>
+      </c>
+      <c r="B226" s="28" t="inlineStr">
+        <is>
+          <t>EC</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>SBS/CSAN</t>
-        </is>
-      </c>
-      <c r="B227" s="26" t="inlineStr">
-        <is>
-          <t>SBS</t>
+          <t>CIB/EXTO</t>
+        </is>
+      </c>
+      <c r="B227" s="29" t="inlineStr">
+        <is>
+          <t>CIB</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2.11</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>SBS/BBD</t>
-        </is>
-      </c>
-      <c r="B228" s="26" t="inlineStr">
-        <is>
-          <t>SBS</t>
+          <t>TGLS/EXTO</t>
+        </is>
+      </c>
+      <c r="B228" s="30" t="inlineStr">
+        <is>
+          <t>TGLS</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>SBS/BSBR</t>
-        </is>
-      </c>
-      <c r="B229" s="26" t="inlineStr">
-        <is>
-          <t>SBS</t>
+          <t>KOF/AMX</t>
+        </is>
+      </c>
+      <c r="B229" s="31" t="inlineStr">
+        <is>
+          <t>KOF</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>SBS/AZUL</t>
-        </is>
-      </c>
-      <c r="B230" s="26" t="inlineStr">
-        <is>
-          <t>SBS</t>
+          <t>KOF/OMAB</t>
+        </is>
+      </c>
+      <c r="B230" s="31" t="inlineStr">
+        <is>
+          <t>KOF</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>SBS/GOL</t>
-        </is>
-      </c>
-      <c r="B231" s="26" t="inlineStr">
-        <is>
-          <t>SBS</t>
+          <t>KOF/VTMX</t>
+        </is>
+      </c>
+      <c r="B231" s="31" t="inlineStr">
+        <is>
+          <t>KOF</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>4.2</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>SBS/GGB</t>
-        </is>
-      </c>
-      <c r="B232" s="26" t="inlineStr">
-        <is>
-          <t>SBS</t>
+          <t>ASR/AMX</t>
+        </is>
+      </c>
+      <c r="B232" s="32" t="inlineStr">
+        <is>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2.52</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>SBS/SUZ</t>
-        </is>
-      </c>
-      <c r="B233" s="26" t="inlineStr">
-        <is>
-          <t>SBS</t>
+          <t>ASR/VLRS</t>
+        </is>
+      </c>
+      <c r="B233" s="32" t="inlineStr">
+        <is>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>2.78</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>SBS/BAK</t>
-        </is>
-      </c>
-      <c r="B234" s="26" t="inlineStr">
-        <is>
-          <t>SBS</t>
+          <t>ASR/OMAB</t>
+        </is>
+      </c>
+      <c r="B234" s="32" t="inlineStr">
+        <is>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2.25</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>SBS/VALE</t>
-        </is>
-      </c>
-      <c r="B235" s="26" t="inlineStr">
-        <is>
-          <t>SBS</t>
+          <t>ASR/PAC</t>
+        </is>
+      </c>
+      <c r="B235" s="32" t="inlineStr">
+        <is>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="inlineStr">
-        <is>
-          <t>SBS/SGML</t>
-        </is>
-      </c>
-      <c r="B236" s="26" t="inlineStr">
-        <is>
-          <t>SBS</t>
-        </is>
-      </c>
-      <c r="C236" t="n">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="inlineStr">
-        <is>
-          <t>SBS/CIG</t>
-        </is>
-      </c>
-      <c r="B237" s="26" t="inlineStr">
-        <is>
-          <t>SBS</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="inlineStr">
-        <is>
-          <t>SBS/ELP</t>
-        </is>
-      </c>
-      <c r="B238" s="26" t="inlineStr">
-        <is>
-          <t>SBS</t>
-        </is>
-      </c>
-      <c r="C238" t="n">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="inlineStr">
-        <is>
-          <t>CCU/SQM</t>
-        </is>
-      </c>
-      <c r="B239" s="27" t="inlineStr">
-        <is>
-          <t>CCU</t>
-        </is>
-      </c>
-      <c r="C239" t="n">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="inlineStr">
-        <is>
-          <t>BCH/SQM</t>
-        </is>
-      </c>
-      <c r="B240" s="28" t="inlineStr">
-        <is>
-          <t>BCH</t>
-        </is>
-      </c>
-      <c r="C240" t="n">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="inlineStr">
-        <is>
-          <t>BSAC/SQM</t>
-        </is>
-      </c>
-      <c r="B241" s="29" t="inlineStr">
-        <is>
-          <t>BSAC</t>
-        </is>
-      </c>
-      <c r="C241" t="n">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="inlineStr">
-        <is>
-          <t>SQM/CCU</t>
-        </is>
-      </c>
-      <c r="B242" s="30" t="inlineStr">
-        <is>
-          <t>SQM</t>
-        </is>
-      </c>
-      <c r="C242" t="n">
-        <v>-2.02</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="inlineStr">
-        <is>
-          <t>EXTO/EC</t>
-        </is>
-      </c>
-      <c r="B243" s="31" t="inlineStr">
-        <is>
-          <t>EXTO</t>
-        </is>
-      </c>
-      <c r="C243" t="n">
-        <v>-2.11</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="inlineStr">
-        <is>
-          <t>EXTO/CIB</t>
-        </is>
-      </c>
-      <c r="B244" s="31" t="inlineStr">
-        <is>
-          <t>EXTO</t>
-        </is>
-      </c>
-      <c r="C244" t="n">
-        <v>-2.52</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="inlineStr">
-        <is>
-          <t>EC/EXTO</t>
-        </is>
-      </c>
-      <c r="B245" s="32" t="inlineStr">
-        <is>
-          <t>EC</t>
-        </is>
-      </c>
-      <c r="C245" t="n">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="inlineStr">
-        <is>
-          <t>CIB/EXTO</t>
-        </is>
-      </c>
-      <c r="B246" s="33" t="inlineStr">
-        <is>
-          <t>CIB</t>
-        </is>
-      </c>
-      <c r="C246" t="n">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="inlineStr">
-        <is>
-          <t>TGLS/EXTO</t>
-        </is>
-      </c>
-      <c r="B247" s="34" t="inlineStr">
-        <is>
-          <t>TGLS</t>
-        </is>
-      </c>
-      <c r="C247" t="n">
-        <v>2.51</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="inlineStr">
-        <is>
-          <t>KOF/AMX</t>
-        </is>
-      </c>
-      <c r="B248" s="35" t="inlineStr">
-        <is>
-          <t>KOF</t>
-        </is>
-      </c>
-      <c r="C248" t="n">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="inlineStr">
-        <is>
-          <t>KOF/OMAB</t>
-        </is>
-      </c>
-      <c r="B249" s="35" t="inlineStr">
-        <is>
-          <t>KOF</t>
-        </is>
-      </c>
-      <c r="C249" t="n">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="inlineStr">
-        <is>
-          <t>KOF/VTMX</t>
-        </is>
-      </c>
-      <c r="B250" s="35" t="inlineStr">
-        <is>
-          <t>KOF</t>
-        </is>
-      </c>
-      <c r="C250" t="n">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="inlineStr">
-        <is>
-          <t>ASR/AMX</t>
-        </is>
-      </c>
-      <c r="B251" s="36" t="inlineStr">
-        <is>
-          <t>ASR</t>
-        </is>
-      </c>
-      <c r="C251" t="n">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="inlineStr">
-        <is>
-          <t>ASR/VLRS</t>
-        </is>
-      </c>
-      <c r="B252" s="36" t="inlineStr">
-        <is>
-          <t>ASR</t>
-        </is>
-      </c>
-      <c r="C252" t="n">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="inlineStr">
-        <is>
-          <t>ASR/OMAB</t>
-        </is>
-      </c>
-      <c r="B253" s="36" t="inlineStr">
-        <is>
-          <t>ASR</t>
-        </is>
-      </c>
-      <c r="C253" t="n">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="inlineStr">
-        <is>
-          <t>ASR/PAC</t>
-        </is>
-      </c>
-      <c r="B254" s="36" t="inlineStr">
-        <is>
-          <t>ASR</t>
-        </is>
-      </c>
-      <c r="C254" t="n">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>

--- a/latamReturns&Ratios/latamCountriesRatios.xlsx
+++ b/latamReturns&Ratios/latamCountriesRatios.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,16 +28,557 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <color rgb="00F1F1F1"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="109">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCC8CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1E5C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9ECE6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFDDCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ECD9CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBC9F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1F7F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAF9E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7F8E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D6E1E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2D6EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1D6E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1F6F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFE9DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFDFD8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2EED2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F3E5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DACAEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBE2DF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1E3F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDE5F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2D0FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D8D1CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EDCBC8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5CADF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9E2D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C9E2EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4D0DF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E54E35"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F57547"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88950"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0017934E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006837"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003CA959"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0066BD63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005DB961"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0036A657"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0042AC5A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00026C39"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7814C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E14430"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F67F4B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0033A456"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007DC765"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007FC866"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00219C52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001E9A51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8864F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D62F27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EB5A3A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F47044"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F16640"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0075C465"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0051B35E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0070C164"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0082C966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00128A49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0069BE63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006EC064"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7844E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0039A758"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0078C565"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0006733D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F26841"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F57245"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88C51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F67C4A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0015904C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0422F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F67A49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F46D43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00118848"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EC5C3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0073C264"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0018954F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0057B65F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000B7D42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084CA66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00108647"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000E8245"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EF633F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E65036"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F36B42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EA5739"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ED5F3C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DB382B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E24731"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E95538"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0045AD5B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000C7F43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005AB760"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00199750"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FAA59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0063BC62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0060BA62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000D8044"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006BBF64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007AC665"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D42D27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EE613E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E75337"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CE2827"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CA2427"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0030A356"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004EB15D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0007753E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002AA054"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,36 +592,122 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -477,12 +1104,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>AGRO</t>
         </is>
@@ -492,13 +1119,17 @@
           <t>AGRO/VIST</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>-2.8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>AGRO</t>
         </is>
@@ -508,13 +1139,17 @@
           <t>AGRO/BMA</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4" t="n">
         <v>-2.29</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>AGRO</t>
         </is>
@@ -524,13 +1159,17 @@
           <t>AGRO/GGAL</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="5" t="n">
         <v>-2.05</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>BMA</t>
         </is>
@@ -540,13 +1179,17 @@
           <t>BMA/AGRO</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="7" t="n">
         <v>3.28</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>BMA</t>
         </is>
@@ -556,13 +1199,17 @@
           <t>BMA/CRESY</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="8" t="n">
         <v>4.15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>BMA</t>
         </is>
@@ -572,13 +1219,17 @@
           <t>BMA/TGS</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="9" t="n">
         <v>2.82</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>BMA</t>
         </is>
@@ -588,13 +1239,17 @@
           <t>BMA/YPF</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="10" t="n">
         <v>2.39</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>BMA</t>
         </is>
@@ -604,13 +1259,17 @@
           <t>BMA/BBAR</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="11" t="n">
         <v>2.49</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>BMA</t>
         </is>
@@ -620,13 +1279,17 @@
           <t>BMA/LOMA</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="12" t="n">
         <v>2.89</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>BMA</t>
         </is>
@@ -636,13 +1299,17 @@
           <t>BMA/IRS</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="8" t="n">
         <v>3.97</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>BMA</t>
         </is>
@@ -652,13 +1319,17 @@
           <t>BMA/CEPU</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="13" t="n">
         <v>2.78</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>BMA</t>
         </is>
@@ -668,13 +1339,17 @@
           <t>BMA/PAM</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="14" t="n">
         <v>3.91</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>CRESY</t>
         </is>
@@ -684,13 +1359,17 @@
           <t>CRESY/TEO</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="16" t="n">
         <v>-2.15</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B15" s="15" t="inlineStr">
         <is>
           <t>CRESY</t>
         </is>
@@ -700,13 +1379,17 @@
           <t>CRESY/VIST</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="5" t="n">
         <v>-2.05</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>CRESY</t>
         </is>
@@ -716,13 +1399,17 @@
           <t>CRESY/BMA</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="17" t="n">
         <v>-2.92</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B17" s="15" t="inlineStr">
         <is>
           <t>CRESY</t>
         </is>
@@ -732,13 +1419,17 @@
           <t>CRESY/GGAL</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="18" t="n">
         <v>-2.17</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B18" s="19" t="inlineStr">
         <is>
           <t>GGAL</t>
         </is>
@@ -748,13 +1439,17 @@
           <t>GGAL/AGRO</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="9" t="n">
         <v>2.82</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B19" s="19" t="inlineStr">
         <is>
           <t>GGAL</t>
         </is>
@@ -764,13 +1459,17 @@
           <t>GGAL/CRESY</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="20" t="n">
         <v>2.92</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B20" s="19" t="inlineStr">
         <is>
           <t>GGAL</t>
         </is>
@@ -780,13 +1479,17 @@
           <t>GGAL/TGS</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="21" t="n">
         <v>2.12</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B21" s="19" t="inlineStr">
         <is>
           <t>GGAL</t>
         </is>
@@ -796,13 +1499,17 @@
           <t>GGAL/BBAR</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="22" t="n">
         <v>2.07</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B22" s="19" t="inlineStr">
         <is>
           <t>GGAL</t>
         </is>
@@ -812,13 +1519,17 @@
           <t>GGAL/LOMA</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="10" t="n">
         <v>2.38</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B23" s="19" t="inlineStr">
         <is>
           <t>GGAL</t>
         </is>
@@ -828,13 +1539,17 @@
           <t>GGAL/IRS</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="23" t="n">
         <v>3.12</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B24" s="19" t="inlineStr">
         <is>
           <t>GGAL</t>
         </is>
@@ -844,13 +1559,17 @@
           <t>GGAL/PAM</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="24" t="n">
         <v>3.13</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B25" s="25" t="inlineStr">
         <is>
           <t>IRS</t>
         </is>
@@ -860,13 +1579,17 @@
           <t>IRS/YPF</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="26" t="n">
         <v>-2.09</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B26" s="25" t="inlineStr">
         <is>
           <t>IRS</t>
         </is>
@@ -876,13 +1599,17 @@
           <t>IRS/BMA</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="27" t="n">
         <v>-3.21</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B27" s="25" t="inlineStr">
         <is>
           <t>IRS</t>
         </is>
@@ -892,13 +1619,17 @@
           <t>IRS/GGAL</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="28" t="n">
         <v>-2.64</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B28" s="29" t="inlineStr">
         <is>
           <t>PAM</t>
         </is>
@@ -908,13 +1639,17 @@
           <t>PAM/YPF</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="30" t="n">
         <v>-2.35</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B29" s="29" t="inlineStr">
         <is>
           <t>PAM</t>
         </is>
@@ -924,13 +1659,17 @@
           <t>PAM/VIST</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="26" t="n">
         <v>-2.09</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B30" s="29" t="inlineStr">
         <is>
           <t>PAM</t>
         </is>
@@ -940,13 +1679,17 @@
           <t>PAM/BMA</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="17" t="n">
         <v>-2.91</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B31" s="29" t="inlineStr">
         <is>
           <t>PAM</t>
         </is>
@@ -956,13 +1699,17 @@
           <t>PAM/GGAL</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="31" t="n">
         <v>-2.47</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B32" s="32" t="inlineStr">
         <is>
           <t>SUPV</t>
         </is>
@@ -972,13 +1719,17 @@
           <t>SUPV/AGRO</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="33" t="n">
         <v>2.21</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B33" s="32" t="inlineStr">
         <is>
           <t>SUPV</t>
         </is>
@@ -988,13 +1739,17 @@
           <t>SUPV/CRESY</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="34" t="n">
         <v>2.62</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B34" s="32" t="inlineStr">
         <is>
           <t>SUPV</t>
         </is>
@@ -1004,13 +1759,17 @@
           <t>SUPV/LOMA</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="22" t="n">
         <v>2.09</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B35" s="32" t="inlineStr">
         <is>
           <t>SUPV</t>
         </is>
@@ -1020,13 +1779,17 @@
           <t>SUPV/IRS</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="35" t="n">
         <v>2.26</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B36" s="32" t="inlineStr">
         <is>
           <t>SUPV</t>
         </is>
@@ -1036,13 +1799,17 @@
           <t>SUPV/CEPU</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="36" t="n">
         <v>2.06</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B37" s="32" t="inlineStr">
         <is>
           <t>SUPV</t>
         </is>
@@ -1052,13 +1819,17 @@
           <t>SUPV/PAM</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="10" t="n">
         <v>2.39</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B38" s="37" t="inlineStr">
         <is>
           <t>VIST</t>
         </is>
@@ -1068,13 +1839,17 @@
           <t>VIST/AGRO</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="38" t="n">
         <v>3.43</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B39" s="37" t="inlineStr">
         <is>
           <t>VIST</t>
         </is>
@@ -1084,13 +1859,17 @@
           <t>VIST/CRESY</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="39" t="n">
         <v>2.37</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B40" s="37" t="inlineStr">
         <is>
           <t>VIST</t>
         </is>
@@ -1100,13 +1879,17 @@
           <t>VIST/PAM</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="40" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B41" s="41" t="inlineStr">
         <is>
           <t>YPF</t>
         </is>
@@ -1116,13 +1899,17 @@
           <t>YPF/AGRO</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="35" t="n">
         <v>2.27</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B42" s="41" t="inlineStr">
         <is>
           <t>YPF</t>
         </is>
@@ -1132,13 +1919,17 @@
           <t>YPF/CRESY</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="34" t="n">
         <v>2.62</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B43" s="41" t="inlineStr">
         <is>
           <t>YPF</t>
         </is>
@@ -1148,13 +1939,17 @@
           <t>YPF/BMA</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="42" t="n">
         <v>-2.1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B44" s="41" t="inlineStr">
         <is>
           <t>YPF</t>
         </is>
@@ -1164,13 +1959,17 @@
           <t>YPF/IRS</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="39" t="n">
         <v>2.37</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B45" s="41" t="inlineStr">
         <is>
           <t>YPF</t>
         </is>
@@ -1180,17 +1979,17 @@
           <t>YPF/PAM</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="43" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B46" s="44" t="inlineStr">
         <is>
           <t>ASAI</t>
         </is>
@@ -1200,13 +1999,17 @@
           <t>ASAI/ABEV</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="45" t="n">
         <v>2.18</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B47" s="44" t="inlineStr">
         <is>
           <t>ASAI</t>
         </is>
@@ -1216,13 +2019,17 @@
           <t>ASAI/GOL</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="46" t="n">
         <v>3.81</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B48" s="44" t="inlineStr">
         <is>
           <t>ASAI</t>
         </is>
@@ -1232,13 +2039,17 @@
           <t>ASAI/GGB</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="33" t="n">
         <v>2.21</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="inlineStr">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B49" s="44" t="inlineStr">
         <is>
           <t>ASAI</t>
         </is>
@@ -1248,13 +2059,17 @@
           <t>ASAI/VALE</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="21" t="n">
         <v>2.11</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B50" s="44" t="inlineStr">
         <is>
           <t>ASAI</t>
         </is>
@@ -1264,13 +2079,17 @@
           <t>ASAI/SGML</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="8" t="n">
         <v>5.27</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="inlineStr">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B51" s="47" t="inlineStr">
         <is>
           <t>BBD</t>
         </is>
@@ -1280,13 +2099,17 @@
           <t>BBD/VIV</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="48" t="n">
         <v>-2.45</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="inlineStr">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B52" s="47" t="inlineStr">
         <is>
           <t>BBD</t>
         </is>
@@ -1296,13 +2119,17 @@
           <t>BBD/TIMB</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="49" t="n">
         <v>-2.32</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="inlineStr">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B53" s="47" t="inlineStr">
         <is>
           <t>BBD</t>
         </is>
@@ -1312,13 +2139,17 @@
           <t>BBD/PBR</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="50" t="n">
         <v>-2.02</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="inlineStr">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B54" s="47" t="inlineStr">
         <is>
           <t>BBD</t>
         </is>
@@ -1328,13 +2159,17 @@
           <t>BBD/UGP</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="51" t="n">
         <v>-2.2</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="inlineStr">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B55" s="47" t="inlineStr">
         <is>
           <t>BBD</t>
         </is>
@@ -1344,13 +2179,17 @@
           <t>BBD/ITUB</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="3" t="n">
         <v>-2.79</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="inlineStr">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B56" s="47" t="inlineStr">
         <is>
           <t>BBD</t>
         </is>
@@ -1360,13 +2199,17 @@
           <t>BBD/NU</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="5" t="n">
         <v>-2.05</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="inlineStr">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B57" s="47" t="inlineStr">
         <is>
           <t>BBD</t>
         </is>
@@ -1376,13 +2219,17 @@
           <t>BBD/PAGS</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="4" t="n">
         <v>-2.29</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="inlineStr">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B58" s="47" t="inlineStr">
         <is>
           <t>BBD</t>
         </is>
@@ -1392,13 +2239,17 @@
           <t>BBD/STNE</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="50" t="n">
         <v>-2.02</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="inlineStr">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B59" s="47" t="inlineStr">
         <is>
           <t>BBD</t>
         </is>
@@ -1408,13 +2259,17 @@
           <t>BBD/GOL</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="52" t="n">
         <v>3.34</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n"/>
-      <c r="B60" s="1" t="inlineStr">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B60" s="47" t="inlineStr">
         <is>
           <t>BBD</t>
         </is>
@@ -1424,13 +2279,17 @@
           <t>BBD/SGML</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="8" t="n">
         <v>4.42</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="inlineStr">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B61" s="47" t="inlineStr">
         <is>
           <t>BBD</t>
         </is>
@@ -1440,13 +2299,17 @@
           <t>BBD/EBR</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="53" t="n">
         <v>-2.96</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="inlineStr">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B62" s="47" t="inlineStr">
         <is>
           <t>BBD</t>
         </is>
@@ -1456,13 +2319,17 @@
           <t>BBD/SBS</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="54" t="n">
         <v>-2.22</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="inlineStr">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B63" s="55" t="inlineStr">
         <is>
           <t>BSBR</t>
         </is>
@@ -1472,13 +2339,17 @@
           <t>BSBR/VIV</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="54" t="n">
         <v>-2.23</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="inlineStr">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B64" s="55" t="inlineStr">
         <is>
           <t>BSBR</t>
         </is>
@@ -1488,13 +2359,17 @@
           <t>BSBR/ITUB</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="56" t="n">
         <v>-2.4</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="inlineStr">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B65" s="55" t="inlineStr">
         <is>
           <t>BSBR</t>
         </is>
@@ -1504,13 +2379,17 @@
           <t>BSBR/PAGS</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="50" t="n">
         <v>-2.01</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="inlineStr">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B66" s="55" t="inlineStr">
         <is>
           <t>BSBR</t>
         </is>
@@ -1520,13 +2399,17 @@
           <t>BSBR/GOL</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="57" t="n">
         <v>3.44</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="inlineStr">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B67" s="55" t="inlineStr">
         <is>
           <t>BSBR</t>
         </is>
@@ -1536,13 +2419,17 @@
           <t>BSBR/SGML</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="8" t="n">
         <v>4.53</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="inlineStr">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B68" s="55" t="inlineStr">
         <is>
           <t>BSBR</t>
         </is>
@@ -1552,13 +2439,17 @@
           <t>BSBR/EBR</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="58" t="n">
         <v>-2.6</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="inlineStr">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B69" s="59" t="inlineStr">
         <is>
           <t>EBR</t>
         </is>
@@ -1568,13 +2459,17 @@
           <t>EBR/ABEV</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="60" t="n">
         <v>2.24</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="inlineStr">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B70" s="59" t="inlineStr">
         <is>
           <t>EBR</t>
         </is>
@@ -1584,13 +2479,17 @@
           <t>EBR/BBD</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="61" t="n">
         <v>3.23</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="inlineStr">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B71" s="59" t="inlineStr">
         <is>
           <t>EBR</t>
         </is>
@@ -1600,13 +2499,17 @@
           <t>EBR/BSBR</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="12" t="n">
         <v>2.88</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="inlineStr">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B72" s="59" t="inlineStr">
         <is>
           <t>EBR</t>
         </is>
@@ -1616,13 +2519,17 @@
           <t>EBR/AZUL</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="62" t="n">
         <v>2.55</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="inlineStr">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B73" s="59" t="inlineStr">
         <is>
           <t>EBR</t>
         </is>
@@ -1632,13 +2539,17 @@
           <t>EBR/GOL</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="63" t="n">
         <v>3.63</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="inlineStr">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B74" s="59" t="inlineStr">
         <is>
           <t>EBR</t>
         </is>
@@ -1648,13 +2559,17 @@
           <t>EBR/GGB</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" s="64" t="n">
         <v>2.01</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="inlineStr">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B75" s="59" t="inlineStr">
         <is>
           <t>EBR</t>
         </is>
@@ -1664,13 +2579,17 @@
           <t>EBR/SGML</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="8" t="n">
         <v>4.67</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="inlineStr">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B76" s="65" t="inlineStr">
         <is>
           <t>ELP</t>
         </is>
@@ -1680,13 +2599,17 @@
           <t>ELP/VIV</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="49" t="n">
         <v>-2.33</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="inlineStr">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B77" s="65" t="inlineStr">
         <is>
           <t>ELP</t>
         </is>
@@ -1696,13 +2619,17 @@
           <t>ELP/TIMB</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="4" t="n">
         <v>-2.29</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="inlineStr">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B78" s="65" t="inlineStr">
         <is>
           <t>ELP</t>
         </is>
@@ -1712,13 +2639,17 @@
           <t>ELP/PBR</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="26" t="n">
         <v>-2.08</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n"/>
-      <c r="B79" s="1" t="inlineStr">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B79" s="65" t="inlineStr">
         <is>
           <t>ELP</t>
         </is>
@@ -1728,13 +2659,17 @@
           <t>ELP/UGP</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="18" t="n">
         <v>-2.18</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n"/>
-      <c r="B80" s="1" t="inlineStr">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B80" s="65" t="inlineStr">
         <is>
           <t>ELP</t>
         </is>
@@ -1744,13 +2679,17 @@
           <t>ELP/ITUB</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="50" t="n">
         <v>-2.02</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="inlineStr">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B81" s="65" t="inlineStr">
         <is>
           <t>ELP</t>
         </is>
@@ -1760,13 +2699,17 @@
           <t>ELP/GOL</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="66" t="n">
         <v>3.49</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n"/>
-      <c r="B82" s="1" t="inlineStr">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B82" s="65" t="inlineStr">
         <is>
           <t>ELP</t>
         </is>
@@ -1776,13 +2719,17 @@
           <t>ELP/SGML</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="8" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="inlineStr">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B83" s="65" t="inlineStr">
         <is>
           <t>ELP</t>
         </is>
@@ -1792,13 +2739,17 @@
           <t>ELP/SBS</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="51" t="n">
         <v>-2.21</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="inlineStr">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B84" s="67" t="inlineStr">
         <is>
           <t>ERJ</t>
         </is>
@@ -1808,13 +2759,17 @@
           <t>ERJ/ABEV</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="45" t="n">
         <v>2.16</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="inlineStr">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B85" s="67" t="inlineStr">
         <is>
           <t>ERJ</t>
         </is>
@@ -1824,13 +2779,17 @@
           <t>ERJ/BBD</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="33" t="n">
         <v>2.19</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n"/>
-      <c r="B86" s="1" t="inlineStr">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B86" s="67" t="inlineStr">
         <is>
           <t>ERJ</t>
         </is>
@@ -1840,13 +2799,17 @@
           <t>ERJ/AZUL</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="64" t="n">
         <v>2.03</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="inlineStr">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B87" s="67" t="inlineStr">
         <is>
           <t>ERJ</t>
         </is>
@@ -1856,13 +2819,17 @@
           <t>ERJ/GOL</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" s="68" t="n">
         <v>3.56</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n"/>
-      <c r="B88" s="1" t="inlineStr">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B88" s="67" t="inlineStr">
         <is>
           <t>ERJ</t>
         </is>
@@ -1872,13 +2839,17 @@
           <t>ERJ/VALE</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" s="45" t="n">
         <v>2.17</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n"/>
-      <c r="B89" s="1" t="inlineStr">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B89" s="67" t="inlineStr">
         <is>
           <t>ERJ</t>
         </is>
@@ -1888,13 +2859,17 @@
           <t>ERJ/SGML</t>
         </is>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" s="8" t="n">
         <v>4.72</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n"/>
-      <c r="B90" s="1" t="inlineStr">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B90" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -1904,13 +2879,17 @@
           <t>GOL/VIV</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="48" t="n">
         <v>-2.44</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n"/>
-      <c r="B91" s="1" t="inlineStr">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B91" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -1920,13 +2899,17 @@
           <t>GOL/TIMB</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" s="56" t="n">
         <v>-2.4</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n"/>
-      <c r="B92" s="1" t="inlineStr">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B92" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -1936,13 +2919,17 @@
           <t>GOL/ABEV</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="70" t="n">
         <v>-2.53</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n"/>
-      <c r="B93" s="1" t="inlineStr">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B93" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -1952,13 +2939,17 @@
           <t>GOL/BRFS</t>
         </is>
       </c>
-      <c r="D93" t="n">
+      <c r="D93" s="18" t="n">
         <v>-2.16</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="inlineStr">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B94" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -1968,13 +2959,17 @@
           <t>GOL/NTCO</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="71" t="n">
         <v>-2.76</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n"/>
-      <c r="B95" s="1" t="inlineStr">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B95" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -1984,13 +2979,17 @@
           <t>GOL/ASAI</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="70" t="n">
         <v>-2.51</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n"/>
-      <c r="B96" s="1" t="inlineStr">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B96" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2000,13 +2999,17 @@
           <t>GOL/CSAN</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="58" t="n">
         <v>-2.62</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="inlineStr">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B97" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2016,13 +3019,17 @@
           <t>GOL/PBR</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="72" t="n">
         <v>-2.43</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="inlineStr">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B98" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2032,13 +3039,17 @@
           <t>GOL/UGP</t>
         </is>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" s="30" t="n">
         <v>-2.37</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n"/>
-      <c r="B99" s="1" t="inlineStr">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B99" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2048,13 +3059,17 @@
           <t>GOL/BBD</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="73" t="n">
         <v>-2.66</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n"/>
-      <c r="B100" s="1" t="inlineStr">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B100" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2064,13 +3079,17 @@
           <t>GOL/BSBR</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="28" t="n">
         <v>-2.63</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n"/>
-      <c r="B101" s="1" t="inlineStr">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B101" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2080,13 +3099,17 @@
           <t>GOL/ITUB</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="74" t="n">
         <v>-2.58</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="inlineStr">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B102" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2096,13 +3119,17 @@
           <t>GOL/NU</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="74" t="n">
         <v>-2.57</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n"/>
-      <c r="B103" s="1" t="inlineStr">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B103" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2112,13 +3139,17 @@
           <t>GOL/PAGS</t>
         </is>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" s="56" t="n">
         <v>-2.38</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n"/>
-      <c r="B104" s="1" t="inlineStr">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B104" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2128,13 +3159,17 @@
           <t>GOL/STNE</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="30" t="n">
         <v>-2.37</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n"/>
-      <c r="B105" s="1" t="inlineStr">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B105" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2144,13 +3179,17 @@
           <t>GOL/XP</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="51" t="n">
         <v>-2.2</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n"/>
-      <c r="B106" s="1" t="inlineStr">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B106" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2160,13 +3199,17 @@
           <t>GOL/AZUL</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="75" t="n">
         <v>-3.07</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n"/>
-      <c r="B107" s="1" t="inlineStr">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B107" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2176,13 +3219,17 @@
           <t>GOL/ERJ</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="49" t="n">
         <v>-2.32</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n"/>
-      <c r="B108" s="1" t="inlineStr">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B108" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2192,13 +3239,17 @@
           <t>GOL/SID</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="51" t="n">
         <v>-2.21</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n"/>
-      <c r="B109" s="1" t="inlineStr">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B109" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2208,13 +3259,17 @@
           <t>GOL/GGB</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="48" t="n">
         <v>-2.44</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n"/>
-      <c r="B110" s="1" t="inlineStr">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B110" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2224,13 +3279,17 @@
           <t>GOL/SUZ</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="4" t="n">
         <v>-2.3</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n"/>
-      <c r="B111" s="1" t="inlineStr">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B111" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2240,13 +3299,17 @@
           <t>GOL/BAK</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="76" t="n">
         <v>-2.89</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n"/>
-      <c r="B112" s="1" t="inlineStr">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B112" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2256,13 +3319,17 @@
           <t>GOL/VALE</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="18" t="n">
         <v>-2.17</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n"/>
-      <c r="B113" s="1" t="inlineStr">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B113" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2272,13 +3339,17 @@
           <t>GOL/EBR</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="77" t="n">
         <v>-2.7</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n"/>
-      <c r="B114" s="1" t="inlineStr">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B114" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2288,13 +3359,17 @@
           <t>GOL/CIG</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="48" t="n">
         <v>-2.45</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n"/>
-      <c r="B115" s="1" t="inlineStr">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B115" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2304,13 +3379,17 @@
           <t>GOL/ELP</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="30" t="n">
         <v>-2.35</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n"/>
-      <c r="B116" s="1" t="inlineStr">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B116" s="69" t="inlineStr">
         <is>
           <t>GOL</t>
         </is>
@@ -2320,13 +3399,17 @@
           <t>GOL/SBS</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="30" t="n">
         <v>-2.35</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n"/>
-      <c r="B117" s="1" t="inlineStr">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B117" s="78" t="inlineStr">
         <is>
           <t>ITUB</t>
         </is>
@@ -2336,13 +3419,17 @@
           <t>ITUB/ABEV</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="33" t="n">
         <v>2.19</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n"/>
-      <c r="B118" s="1" t="inlineStr">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B118" s="78" t="inlineStr">
         <is>
           <t>ITUB</t>
         </is>
@@ -2352,13 +3439,17 @@
           <t>ITUB/CSAN</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="35" t="n">
         <v>2.27</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n"/>
-      <c r="B119" s="1" t="inlineStr">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B119" s="78" t="inlineStr">
         <is>
           <t>ITUB</t>
         </is>
@@ -2368,13 +3459,17 @@
           <t>ITUB/BBD</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="23" t="n">
         <v>3.12</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n"/>
-      <c r="B120" s="1" t="inlineStr">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B120" s="78" t="inlineStr">
         <is>
           <t>ITUB</t>
         </is>
@@ -2384,13 +3479,17 @@
           <t>ITUB/BSBR</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="79" t="n">
         <v>2.72</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n"/>
-      <c r="B121" s="1" t="inlineStr">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B121" s="78" t="inlineStr">
         <is>
           <t>ITUB</t>
         </is>
@@ -2400,13 +3499,17 @@
           <t>ITUB/AZUL</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="34" t="n">
         <v>2.61</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n"/>
-      <c r="B122" s="1" t="inlineStr">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B122" s="78" t="inlineStr">
         <is>
           <t>ITUB</t>
         </is>
@@ -2416,13 +3519,17 @@
           <t>ITUB/GOL</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="80" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n"/>
-      <c r="B123" s="1" t="inlineStr">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B123" s="78" t="inlineStr">
         <is>
           <t>ITUB</t>
         </is>
@@ -2432,13 +3539,17 @@
           <t>ITUB/GGB</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="64" t="n">
         <v>2.02</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n"/>
-      <c r="B124" s="1" t="inlineStr">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B124" s="78" t="inlineStr">
         <is>
           <t>ITUB</t>
         </is>
@@ -2448,13 +3559,17 @@
           <t>ITUB/SGML</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="8" t="n">
         <v>4.57</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n"/>
-      <c r="B125" s="1" t="inlineStr">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B125" s="78" t="inlineStr">
         <is>
           <t>ITUB</t>
         </is>
@@ -2464,13 +3579,17 @@
           <t>ITUB/ELP</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="45" t="n">
         <v>2.18</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n"/>
-      <c r="B126" s="1" t="inlineStr">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B126" s="81" t="inlineStr">
         <is>
           <t>NU</t>
         </is>
@@ -2480,13 +3599,17 @@
           <t>NU/ABEV</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="35" t="n">
         <v>2.28</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n"/>
-      <c r="B127" s="1" t="inlineStr">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B127" s="81" t="inlineStr">
         <is>
           <t>NU</t>
         </is>
@@ -2496,13 +3619,17 @@
           <t>NU/CSAN</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="82" t="n">
         <v>2.52</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n"/>
-      <c r="B128" s="1" t="inlineStr">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B128" s="81" t="inlineStr">
         <is>
           <t>NU</t>
         </is>
@@ -2512,13 +3639,17 @@
           <t>NU/BBD</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="43" t="n">
         <v>2.87</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n"/>
-      <c r="B129" s="1" t="inlineStr">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B129" s="81" t="inlineStr">
         <is>
           <t>NU</t>
         </is>
@@ -2528,13 +3659,17 @@
           <t>NU/BSBR</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="39" t="n">
         <v>2.37</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n"/>
-      <c r="B130" s="1" t="inlineStr">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B130" s="81" t="inlineStr">
         <is>
           <t>NU</t>
         </is>
@@ -2544,13 +3679,17 @@
           <t>NU/AZUL</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="83" t="n">
         <v>3.21</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n"/>
-      <c r="B131" s="1" t="inlineStr">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B131" s="81" t="inlineStr">
         <is>
           <t>NU</t>
         </is>
@@ -2560,13 +3699,17 @@
           <t>NU/GOL</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="46" t="n">
         <v>3.81</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="inlineStr">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B132" s="81" t="inlineStr">
         <is>
           <t>NU</t>
         </is>
@@ -2576,13 +3719,17 @@
           <t>NU/GGB</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="35" t="n">
         <v>2.25</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n"/>
-      <c r="B133" s="1" t="inlineStr">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B133" s="81" t="inlineStr">
         <is>
           <t>NU</t>
         </is>
@@ -2592,13 +3739,17 @@
           <t>NU/VALE</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="64" t="n">
         <v>2.02</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n"/>
-      <c r="B134" s="1" t="inlineStr">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B134" s="81" t="inlineStr">
         <is>
           <t>NU</t>
         </is>
@@ -2608,13 +3759,17 @@
           <t>NU/SGML</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="8" t="n">
         <v>4.65</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n"/>
-      <c r="B135" s="1" t="inlineStr">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B135" s="81" t="inlineStr">
         <is>
           <t>NU</t>
         </is>
@@ -2624,13 +3779,17 @@
           <t>NU/CIG</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="60" t="n">
         <v>2.24</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n"/>
-      <c r="B136" s="1" t="inlineStr">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B136" s="81" t="inlineStr">
         <is>
           <t>NU</t>
         </is>
@@ -2640,13 +3799,17 @@
           <t>NU/ELP</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="82" t="n">
         <v>2.52</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n"/>
-      <c r="B137" s="1" t="inlineStr">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B137" s="84" t="inlineStr">
         <is>
           <t>PAGS</t>
         </is>
@@ -2656,13 +3819,17 @@
           <t>PAGS/ABEV</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" s="39" t="n">
         <v>2.37</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n"/>
-      <c r="B138" s="1" t="inlineStr">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B138" s="84" t="inlineStr">
         <is>
           <t>PAGS</t>
         </is>
@@ -2672,13 +3839,17 @@
           <t>PAGS/BBD</t>
         </is>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" s="85" t="n">
         <v>2.81</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n"/>
-      <c r="B139" s="1" t="inlineStr">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B139" s="84" t="inlineStr">
         <is>
           <t>PAGS</t>
         </is>
@@ -2688,13 +3859,17 @@
           <t>PAGS/BSBR</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="86" t="n">
         <v>2.43</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n"/>
-      <c r="B140" s="1" t="inlineStr">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B140" s="84" t="inlineStr">
         <is>
           <t>PAGS</t>
         </is>
@@ -2704,13 +3879,17 @@
           <t>PAGS/AZUL</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="62" t="n">
         <v>2.56</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n"/>
-      <c r="B141" s="1" t="inlineStr">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B141" s="84" t="inlineStr">
         <is>
           <t>PAGS</t>
         </is>
@@ -2720,13 +3899,17 @@
           <t>PAGS/GOL</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="68" t="n">
         <v>3.56</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n"/>
-      <c r="B142" s="1" t="inlineStr">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B142" s="84" t="inlineStr">
         <is>
           <t>PAGS</t>
         </is>
@@ -2736,13 +3919,17 @@
           <t>PAGS/GGB</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="33" t="n">
         <v>2.19</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n"/>
-      <c r="B143" s="1" t="inlineStr">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B143" s="84" t="inlineStr">
         <is>
           <t>PAGS</t>
         </is>
@@ -2752,13 +3939,17 @@
           <t>PAGS/VALE</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="64" t="n">
         <v>2.03</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n"/>
-      <c r="B144" s="1" t="inlineStr">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B144" s="84" t="inlineStr">
         <is>
           <t>PAGS</t>
         </is>
@@ -2768,13 +3959,17 @@
           <t>PAGS/SGML</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="8" t="n">
         <v>4.71</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n"/>
-      <c r="B145" s="1" t="inlineStr">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B145" s="87" t="inlineStr">
         <is>
           <t>PBR</t>
         </is>
@@ -2784,13 +3979,17 @@
           <t>PBR/CSAN</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="64" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n"/>
-      <c r="B146" s="1" t="inlineStr">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B146" s="87" t="inlineStr">
         <is>
           <t>PBR</t>
         </is>
@@ -2800,13 +3999,17 @@
           <t>PBR/BBD</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="88" t="n">
         <v>2.46</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n"/>
-      <c r="B147" s="1" t="inlineStr">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B147" s="87" t="inlineStr">
         <is>
           <t>PBR</t>
         </is>
@@ -2816,13 +4019,17 @@
           <t>PBR/AZUL</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" s="62" t="n">
         <v>2.55</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n"/>
-      <c r="B148" s="1" t="inlineStr">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B148" s="87" t="inlineStr">
         <is>
           <t>PBR</t>
         </is>
@@ -2832,13 +4039,17 @@
           <t>PBR/GOL</t>
         </is>
       </c>
-      <c r="D148" t="n">
+      <c r="D148" s="89" t="n">
         <v>3.57</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n"/>
-      <c r="B149" s="1" t="inlineStr">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B149" s="87" t="inlineStr">
         <is>
           <t>PBR</t>
         </is>
@@ -2848,13 +4059,17 @@
           <t>PBR/SGML</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" s="8" t="n">
         <v>4.51</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n"/>
-      <c r="B150" s="1" t="inlineStr">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B150" s="87" t="inlineStr">
         <is>
           <t>PBR</t>
         </is>
@@ -2864,13 +4079,17 @@
           <t>PBR/ELP</t>
         </is>
       </c>
-      <c r="D150" t="n">
+      <c r="D150" s="90" t="n">
         <v>2.34</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n"/>
-      <c r="B151" s="1" t="inlineStr">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B151" s="91" t="inlineStr">
         <is>
           <t>SBS</t>
         </is>
@@ -2880,13 +4099,17 @@
           <t>SBS/ABEV</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="45" t="n">
         <v>2.18</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n"/>
-      <c r="B152" s="1" t="inlineStr">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B152" s="91" t="inlineStr">
         <is>
           <t>SBS</t>
         </is>
@@ -2896,13 +4119,17 @@
           <t>SBS/CSAN</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="39" t="n">
         <v>2.36</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n"/>
-      <c r="B153" s="1" t="inlineStr">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B153" s="91" t="inlineStr">
         <is>
           <t>SBS</t>
         </is>
@@ -2912,13 +4139,17 @@
           <t>SBS/BBD</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="13" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n"/>
-      <c r="B154" s="1" t="inlineStr">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B154" s="91" t="inlineStr">
         <is>
           <t>SBS</t>
         </is>
@@ -2928,13 +4159,17 @@
           <t>SBS/BSBR</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="10" t="n">
         <v>2.39</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n"/>
-      <c r="B155" s="1" t="inlineStr">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B155" s="91" t="inlineStr">
         <is>
           <t>SBS</t>
         </is>
@@ -2944,13 +4179,17 @@
           <t>SBS/AZUL</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="79" t="n">
         <v>2.74</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n"/>
-      <c r="B156" s="1" t="inlineStr">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B156" s="91" t="inlineStr">
         <is>
           <t>SBS</t>
         </is>
@@ -2960,13 +4199,17 @@
           <t>SBS/GOL</t>
         </is>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" s="68" t="n">
         <v>3.55</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n"/>
-      <c r="B157" s="1" t="inlineStr">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B157" s="91" t="inlineStr">
         <is>
           <t>SBS</t>
         </is>
@@ -2976,13 +4219,17 @@
           <t>SBS/GGB</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="22" t="n">
         <v>2.08</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n"/>
-      <c r="B158" s="1" t="inlineStr">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B158" s="91" t="inlineStr">
         <is>
           <t>SBS</t>
         </is>
@@ -2992,13 +4239,17 @@
           <t>SBS/VALE</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="92" t="n">
         <v>2.14</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n"/>
-      <c r="B159" s="1" t="inlineStr">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B159" s="91" t="inlineStr">
         <is>
           <t>SBS</t>
         </is>
@@ -3008,13 +4259,17 @@
           <t>SBS/SGML</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="8" t="n">
         <v>4.49</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n"/>
-      <c r="B160" s="1" t="inlineStr">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B160" s="91" t="inlineStr">
         <is>
           <t>SBS</t>
         </is>
@@ -3024,13 +4279,17 @@
           <t>SBS/CIG</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="64" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n"/>
-      <c r="B161" s="1" t="inlineStr">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B161" s="91" t="inlineStr">
         <is>
           <t>SBS</t>
         </is>
@@ -3040,13 +4299,17 @@
           <t>SBS/ELP</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="86" t="n">
         <v>2.42</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n"/>
-      <c r="B162" s="1" t="inlineStr">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B162" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3056,13 +4319,17 @@
           <t>SGML/VIV</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="31" t="n">
         <v>-2.49</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n"/>
-      <c r="B163" s="1" t="inlineStr">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B163" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3072,13 +4339,17 @@
           <t>SGML/TIMB</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="72" t="n">
         <v>-2.43</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n"/>
-      <c r="B164" s="1" t="inlineStr">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B164" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3088,13 +4359,17 @@
           <t>SGML/ABEV</t>
         </is>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" s="94" t="n">
         <v>-3.24</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n"/>
-      <c r="B165" s="1" t="inlineStr">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B165" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3104,13 +4379,17 @@
           <t>SGML/NTCO</t>
         </is>
       </c>
-      <c r="D165" t="n">
+      <c r="D165" s="56" t="n">
         <v>-2.38</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n"/>
-      <c r="B166" s="1" t="inlineStr">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B166" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3120,13 +4399,17 @@
           <t>SGML/ASAI</t>
         </is>
       </c>
-      <c r="D166" t="n">
+      <c r="D166" s="76" t="n">
         <v>-2.9</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n"/>
-      <c r="B167" s="1" t="inlineStr">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B167" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3136,13 +4419,17 @@
           <t>SGML/CSAN</t>
         </is>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" s="70" t="n">
         <v>-2.52</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n"/>
-      <c r="B168" s="1" t="inlineStr">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B168" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3152,13 +4439,17 @@
           <t>SGML/PBR</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" s="54" t="n">
         <v>-2.25</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n"/>
-      <c r="B169" s="1" t="inlineStr">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B169" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3168,13 +4459,17 @@
           <t>SGML/UGP</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="26" t="n">
         <v>-2.08</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n"/>
-      <c r="B170" s="1" t="inlineStr">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B170" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3184,13 +4479,17 @@
           <t>SGML/BBD</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="73" t="n">
         <v>-2.67</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n"/>
-      <c r="B171" s="1" t="inlineStr">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B171" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3200,13 +4499,17 @@
           <t>SGML/BSBR</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="3" t="n">
         <v>-2.79</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n"/>
-      <c r="B172" s="1" t="inlineStr">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B172" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3216,13 +4519,17 @@
           <t>SGML/ITUB</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="95" t="n">
         <v>-2.55</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n"/>
-      <c r="B173" s="1" t="inlineStr">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B173" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3232,13 +4539,17 @@
           <t>SGML/NU</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="50" t="n">
         <v>-2.01</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n"/>
-      <c r="B174" s="1" t="inlineStr">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B174" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3248,13 +4559,17 @@
           <t>SGML/PAGS</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="96" t="n">
         <v>-2.75</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n"/>
-      <c r="B175" s="1" t="inlineStr">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B175" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3264,13 +4579,17 @@
           <t>SGML/STNE</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="49" t="n">
         <v>-2.33</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n"/>
-      <c r="B176" s="1" t="inlineStr">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B176" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3280,13 +4599,17 @@
           <t>SGML/AZUL</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="5" t="n">
         <v>-2.04</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n"/>
-      <c r="B177" s="1" t="inlineStr">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B177" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3296,13 +4619,17 @@
           <t>SGML/ERJ</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="73" t="n">
         <v>-2.67</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n"/>
-      <c r="B178" s="1" t="inlineStr">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B178" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3312,13 +4639,17 @@
           <t>SGML/SID</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="70" t="n">
         <v>-2.52</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n"/>
-      <c r="B179" s="1" t="inlineStr">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B179" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3328,13 +4659,17 @@
           <t>SGML/GGB</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="97" t="n">
         <v>-3.34</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n"/>
-      <c r="B180" s="1" t="inlineStr">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B180" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3344,13 +4679,17 @@
           <t>SGML/SUZ</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="56" t="n">
         <v>-2.39</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n"/>
-      <c r="B181" s="1" t="inlineStr">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B181" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3360,13 +4699,17 @@
           <t>SGML/BAK</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="98" t="n">
         <v>-3.4</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n"/>
-      <c r="B182" s="1" t="inlineStr">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B182" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3376,13 +4719,17 @@
           <t>SGML/VALE</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="71" t="n">
         <v>-2.78</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n"/>
-      <c r="B183" s="1" t="inlineStr">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B183" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3392,13 +4739,17 @@
           <t>SGML/EBR</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="73" t="n">
         <v>-2.68</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n"/>
-      <c r="B184" s="1" t="inlineStr">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B184" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3408,13 +4759,17 @@
           <t>SGML/CIG</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="53" t="n">
         <v>-2.94</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n"/>
-      <c r="B185" s="1" t="inlineStr">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B185" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3424,13 +4779,17 @@
           <t>SGML/ELP</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="30" t="n">
         <v>-2.37</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n"/>
-      <c r="B186" s="1" t="inlineStr">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B186" s="93" t="inlineStr">
         <is>
           <t>SGML</t>
         </is>
@@ -3440,13 +4799,17 @@
           <t>SGML/SBS</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="4" t="n">
         <v>-2.31</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n"/>
-      <c r="B187" s="1" t="inlineStr">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B187" s="99" t="inlineStr">
         <is>
           <t>TIMB</t>
         </is>
@@ -3456,13 +4819,17 @@
           <t>TIMB/ABEV</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" s="64" t="n">
         <v>2.02</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n"/>
-      <c r="B188" s="1" t="inlineStr">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B188" s="99" t="inlineStr">
         <is>
           <t>TIMB</t>
         </is>
@@ -3472,13 +4839,17 @@
           <t>TIMB/BBD</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="85" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n"/>
-      <c r="B189" s="1" t="inlineStr">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B189" s="99" t="inlineStr">
         <is>
           <t>TIMB</t>
         </is>
@@ -3488,13 +4859,17 @@
           <t>TIMB/BSBR</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="35" t="n">
         <v>2.28</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n"/>
-      <c r="B190" s="1" t="inlineStr">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B190" s="99" t="inlineStr">
         <is>
           <t>TIMB</t>
         </is>
@@ -3504,13 +4879,17 @@
           <t>TIMB/AZUL</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="82" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n"/>
-      <c r="B191" s="1" t="inlineStr">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B191" s="99" t="inlineStr">
         <is>
           <t>TIMB</t>
         </is>
@@ -3520,13 +4899,17 @@
           <t>TIMB/GOL</t>
         </is>
       </c>
-      <c r="D191" t="n">
+      <c r="D191" s="63" t="n">
         <v>3.65</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n"/>
-      <c r="B192" s="1" t="inlineStr">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B192" s="99" t="inlineStr">
         <is>
           <t>TIMB</t>
         </is>
@@ -3536,13 +4919,17 @@
           <t>TIMB/SGML</t>
         </is>
       </c>
-      <c r="D192" t="n">
+      <c r="D192" s="8" t="n">
         <v>4.59</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n"/>
-      <c r="B193" s="1" t="inlineStr">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B193" s="99" t="inlineStr">
         <is>
           <t>TIMB</t>
         </is>
@@ -3552,13 +4939,17 @@
           <t>TIMB/ELP</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" s="11" t="n">
         <v>2.48</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n"/>
-      <c r="B194" s="1" t="inlineStr">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B194" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3568,13 +4959,17 @@
           <t>UGP/TIMB</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="92" t="n">
         <v>2.15</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n"/>
-      <c r="B195" s="1" t="inlineStr">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B195" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3584,13 +4979,17 @@
           <t>UGP/ABEV</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="39" t="n">
         <v>2.36</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n"/>
-      <c r="B196" s="1" t="inlineStr">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B196" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3600,13 +4999,17 @@
           <t>UGP/NTCO</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="21" t="n">
         <v>2.11</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n"/>
-      <c r="B197" s="1" t="inlineStr">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B197" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3616,13 +5019,17 @@
           <t>UGP/CSAN</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="34" t="n">
         <v>2.61</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n"/>
-      <c r="B198" s="1" t="inlineStr">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B198" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3632,13 +5039,17 @@
           <t>UGP/BBD</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="101" t="n">
         <v>2.94</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n"/>
-      <c r="B199" s="1" t="inlineStr">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B199" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3648,13 +5059,17 @@
           <t>UGP/BSBR</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="102" t="n">
         <v>2.63</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n"/>
-      <c r="B200" s="1" t="inlineStr">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B200" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3664,13 +5079,17 @@
           <t>UGP/ITUB</t>
         </is>
       </c>
-      <c r="D200" t="n">
+      <c r="D200" s="21" t="n">
         <v>2.11</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n"/>
-      <c r="B201" s="1" t="inlineStr">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B201" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3680,13 +5099,17 @@
           <t>UGP/AZUL</t>
         </is>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" s="23" t="n">
         <v>3.12</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n"/>
-      <c r="B202" s="1" t="inlineStr">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B202" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3696,13 +5119,17 @@
           <t>UGP/GOL</t>
         </is>
       </c>
-      <c r="D202" t="n">
+      <c r="D202" s="103" t="n">
         <v>3.77</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n"/>
-      <c r="B203" s="1" t="inlineStr">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B203" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3712,13 +5139,17 @@
           <t>UGP/GGB</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" s="35" t="n">
         <v>2.26</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n"/>
-      <c r="B204" s="1" t="inlineStr">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B204" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3728,13 +5159,17 @@
           <t>UGP/SUZ</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="64" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n"/>
-      <c r="B205" s="1" t="inlineStr">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B205" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3744,13 +5179,17 @@
           <t>UGP/VALE</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" s="90" t="n">
         <v>2.34</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n"/>
-      <c r="B206" s="1" t="inlineStr">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B206" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3760,13 +5199,17 @@
           <t>UGP/SGML</t>
         </is>
       </c>
-      <c r="D206" t="n">
+      <c r="D206" s="8" t="n">
         <v>4.58</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n"/>
-      <c r="B207" s="1" t="inlineStr">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B207" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3776,13 +5219,17 @@
           <t>UGP/EBR</t>
         </is>
       </c>
-      <c r="D207" t="n">
+      <c r="D207" s="22" t="n">
         <v>2.08</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n"/>
-      <c r="B208" s="1" t="inlineStr">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B208" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3792,13 +5239,17 @@
           <t>UGP/CIG</t>
         </is>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" s="33" t="n">
         <v>2.2</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n"/>
-      <c r="B209" s="1" t="inlineStr">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B209" s="100" t="inlineStr">
         <is>
           <t>UGP</t>
         </is>
@@ -3808,13 +5259,17 @@
           <t>UGP/ELP</t>
         </is>
       </c>
-      <c r="D209" t="n">
+      <c r="D209" s="102" t="n">
         <v>2.65</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n"/>
-      <c r="B210" s="1" t="inlineStr">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B210" s="104" t="inlineStr">
         <is>
           <t>VIV</t>
         </is>
@@ -3824,13 +5279,17 @@
           <t>VIV/ABEV</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" s="60" t="n">
         <v>2.22</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n"/>
-      <c r="B211" s="1" t="inlineStr">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B211" s="104" t="inlineStr">
         <is>
           <t>VIV</t>
         </is>
@@ -3840,13 +5299,17 @@
           <t>VIV/BBD</t>
         </is>
       </c>
-      <c r="D211" t="n">
+      <c r="D211" s="105" t="n">
         <v>3.02</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n"/>
-      <c r="B212" s="1" t="inlineStr">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B212" s="104" t="inlineStr">
         <is>
           <t>VIV</t>
         </is>
@@ -3856,13 +5319,17 @@
           <t>VIV/BSBR</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="102" t="n">
         <v>2.65</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n"/>
-      <c r="B213" s="1" t="inlineStr">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B213" s="104" t="inlineStr">
         <is>
           <t>VIV</t>
         </is>
@@ -3872,13 +5339,17 @@
           <t>VIV/AZUL</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="102" t="n">
         <v>2.64</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="n"/>
-      <c r="B214" s="1" t="inlineStr">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B214" s="104" t="inlineStr">
         <is>
           <t>VIV</t>
         </is>
@@ -3888,13 +5359,17 @@
           <t>VIV/GOL</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="103" t="n">
         <v>3.75</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n"/>
-      <c r="B215" s="1" t="inlineStr">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B215" s="104" t="inlineStr">
         <is>
           <t>VIV</t>
         </is>
@@ -3904,13 +5379,17 @@
           <t>VIV/GGB</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="22" t="n">
         <v>2.07</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n"/>
-      <c r="B216" s="1" t="inlineStr">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B216" s="104" t="inlineStr">
         <is>
           <t>VIV</t>
         </is>
@@ -3920,13 +5399,17 @@
           <t>VIV/VALE</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="92" t="n">
         <v>2.15</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="n"/>
-      <c r="B217" s="1" t="inlineStr">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B217" s="104" t="inlineStr">
         <is>
           <t>VIV</t>
         </is>
@@ -3936,13 +5419,17 @@
           <t>VIV/SGML</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="8" t="n">
         <v>4.72</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="n"/>
-      <c r="B218" s="1" t="inlineStr">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B218" s="104" t="inlineStr">
         <is>
           <t>VIV</t>
         </is>
@@ -3952,17 +5439,17 @@
           <t>VIV/ELP</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="102" t="n">
         <v>2.65</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="inlineStr">
+      <c r="A219" t="inlineStr">
         <is>
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B219" s="1" t="inlineStr">
+      <c r="B219" s="106" t="inlineStr">
         <is>
           <t>CIB</t>
         </is>
@@ -3972,13 +5459,17 @@
           <t>CIB/EXTO</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="13" t="n">
         <v>2.78</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="n"/>
-      <c r="B220" s="1" t="inlineStr">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B220" s="107" t="inlineStr">
         <is>
           <t>EXTO</t>
         </is>
@@ -3988,13 +5479,17 @@
           <t>EXTO/CIB</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="54" t="n">
         <v>-2.24</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="n"/>
-      <c r="B221" s="1" t="inlineStr">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B221" s="108" t="inlineStr">
         <is>
           <t>TGLS</t>
         </is>
@@ -4004,16 +5499,11 @@
           <t>TGLS/EXTO</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="39" t="n">
         <v>2.36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A45"/>
-    <mergeCell ref="A46:A218"/>
-    <mergeCell ref="A219:A221"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>